--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Профы" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>nature</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>HOLY_CITY</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
   <si>
     <t>PRODUCTION</t>
@@ -207,40 +210,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.0" numFmtId="165"/>
-    <numFmt formatCode="0;\-0" numFmtId="166"/>
-    <numFmt formatCode="#,##0.00" numFmtId="167"/>
-    <numFmt formatCode="#,##0" numFmtId="168"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0;\-0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="6">
@@ -276,7 +273,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -285,99 +282,95 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -389,8 +382,8 @@
   </sheetPr>
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J12" activeCellId="0" pane="topLeft" sqref="J12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -405,7 +398,7 @@
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.5714285714286"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
@@ -474,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -514,7 +507,7 @@
         <v>1.12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -554,7 +547,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,7 +587,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -634,7 +627,7 @@
         <v>1.12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +667,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -714,7 +707,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -754,7 +747,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -794,7 +787,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -834,7 +827,7 @@
         <v>0.56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -874,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -914,7 +907,7 @@
         <v>1.12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -954,7 +947,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -994,7 +987,7 @@
         <v>0.14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1027,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1067,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1114,7 +1107,7 @@
         <v>0.56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +1147,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1187,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1227,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1274,7 +1267,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +1307,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1347,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="n">
         <f aca="false">SUM(C3:C23)</f>
         <v>5.2</v>
@@ -1399,7 +1392,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1414,8 +1407,8 @@
   </sheetPr>
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1425,7 +1418,7 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.5714285714286"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1451,7 +1444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1601,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1631,7 +1624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1751,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1781,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1811,7 +1804,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1871,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +1894,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,7 +1924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1961,7 +1954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +1984,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,7 +2014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -2051,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -2111,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="n">
         <f aca="false">SUM(C3:C24)</f>
         <v>19</v>
@@ -2141,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="n">
         <f aca="false">SUM(C25:I25)</f>
         <v>94</v>
@@ -2178,7 +2171,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2191,13 +2184,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AJ28"/>
+  <dimension ref="B1:AK28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Y35" activeCellId="0" pane="topLeft" sqref="Y35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE15" activeCellId="0" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.1"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.86224489795918"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8622448979592"/>
@@ -2221,31 +2214,31 @@
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.29081632653061"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="25" min="23" style="0" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="5.27551020408163"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.46938775510204"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="17.1326530612245"/>
+    <col collapsed="false" hidden="false" max="26" min="23" style="0" width="11.8622448979592"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="5.27551020408163"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="8.46938775510204"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.1428571428571"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="7.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="17.1326530612245"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
         <v>40</v>
       </c>
       <c r="P1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
         <v>44</v>
       </c>
@@ -2309,11 +2302,11 @@
       <c r="X2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>58</v>
@@ -2321,11 +2314,11 @@
       <c r="AC2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AF2" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="AG2" s="0" t="s">
         <v>58</v>
@@ -2333,14 +2326,17 @@
       <c r="AH2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="AK2" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
@@ -2387,25 +2383,22 @@
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
-      <c r="AA3" s="0" t="n">
+      <c r="Y3" s="12"/>
+      <c r="AB3" s="0" t="n">
         <f aca="false">0.5*C3+0.5*D3</f>
         <v>1</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <f aca="false">0.4*E3+0.1*G3+0.3*I3+0.2*M3</f>
         <v>1</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <f aca="false">0.3*F3+0.2*J3+0.2*K3+0.3*L3</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <f aca="false">1*H3</f>
         <v>1</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <f aca="false">ROUND(AA3/10, 2)</f>
-        <v>0.1</v>
       </c>
       <c r="AG3" s="0" t="n">
         <f aca="false">ROUND(AB3/10, 2)</f>
@@ -2420,11 +2413,15 @@
         <v>0.1</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <f aca="false">AF3+AG3+AH3+AI3</f>
+        <f aca="false">ROUND(AE3/10, 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <f aca="false">AG3+AH3+AI3+AJ3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2467,83 +2464,87 @@
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="11" t="n">
-        <f aca="false">ROUND((C4*5+D4*10+E4*2+F4*4-G4*7+H4*4-I4*4+J4*3+K4*10+L4*5+M4*0) / 54)</f>
+        <f aca="false">ROUND((C4*5+D4*10+E4*2+F4*4-G4*7+H4*4-I4*4+J4*3+K4*10+L4*5+M4*0) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <f aca="false">ROUND((C4*8+D4*10+E4*2-F4*4-G4*5+H4*2-I4*3+J4*5+K4*5+L4*2+M4*2) / 48)</f>
+        <f aca="false">ROUND((C4*8+D4*10+E4*2-F4*4-G4*5+H4*2-I4*3+J4*5+K4*5+L4*2+M4*2) / 48,0)</f>
         <v>3</v>
       </c>
       <c r="R4" s="12" t="n">
-        <f aca="false">ROUND((C4*0+D4*3+E4*10-F4*3+G4*2+H4*4+I4*5-J4*3-K4*4-L4*2+M4*2) / 38)</f>
+        <f aca="false">ROUND((C4*0+D4*3+E4*10-F4*3+G4*2+H4*4+I4*5-J4*3-K4*4-L4*2+M4*2) / 38,0)</f>
         <v>1</v>
       </c>
       <c r="S4" s="12" t="n">
-        <f aca="false">ROUND((-C4*3-D4*5+E4*3+F4*1+G4*4+H4*2+I4*10-J4*3+K4*6+L4*8+M4*0) / 45)</f>
+        <f aca="false">ROUND((-C4*3-D4*5+E4*3+F4*1+G4*4+H4*2+I4*10-J4*3+K4*6+L4*8+M4*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T4" s="12" t="n">
-        <f aca="false">ROUND((C4*5+D4*5-E4*3+F4*7-G4*2+H4*7-I4*3+J4*5+K4*8+L4*8+M4*1) / 54)</f>
+        <f aca="false">ROUND((C4*5+D4*5-E4*3+F4*7-G4*2+H4*7-I4*3+J4*5+K4*8+L4*8+M4*1) / 54,0)</f>
         <v>2</v>
       </c>
       <c r="U4" s="12" t="n">
-        <f aca="false">ROUND((-C4*4-D4*2+E4*5+F4*5+G4*2+H4*2-I4*1+J4*7+K4*1+L4*2+M4*10) / 41)</f>
+        <f aca="false">ROUND((-C4*4-D4*2+E4*5+F4*5+G4*2+H4*2-I4*1+J4*7+K4*1+L4*2+M4*10) / 41,0)</f>
         <v>-1</v>
       </c>
       <c r="V4" s="12" t="n">
-        <f aca="false">ROUND((C4*2+D4*4+E4*9+F4*3-G4*3+H4*10-I4*3+J4*3+K4*8+L4*5+M4*0) / 50)</f>
+        <f aca="false">ROUND((C4*2+D4*4+E4*9+F4*3-G4*3+H4*10-I4*3+J4*3+K4*8+L4*5+M4*0) / 50,0)</f>
         <v>2</v>
       </c>
       <c r="W4" s="12" t="n">
-        <f aca="false">ROUND((3*C4-1*D4-10*E4+3*F4-6*G4+6*H4-7*I4+2*J4+1*K4+8*L4-2*M4)/50)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="13" t="n">
-        <f aca="false">ROUND((-C4*3+D4*2+E4*2-F4*5+G4*10+H4*3+I4*6-J4*8-K4*3+L4*5+M4*3) / 50)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14" t="n">
-        <f aca="false">SUM(P4:X4)</f>
+        <f aca="false">ROUND((3*C4-1*D4-10*E4+3*F4-6*G4+6*H4-7*I4+2*J4+1*K4+8*L4-2*M4)/50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <f aca="false">ROUND((-C4*3+D4*2+E4*2-F4*5+G4*10+H4*3+I4*6-J4*8-K4*3+L4*5+M4*3) / 50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <f aca="false">SUM(P4:Y4)</f>
         <v>9</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <f aca="false">0.5*C4+0.5*D4</f>
         <v>6</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <f aca="false">0.4*E4+0.1*G4+0.3*I4+0.2*M4</f>
         <v>-0.2</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <f aca="false">0.3*F4+0.2*J4+0.2*K4+0.3*L4</f>
         <v>0.3</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <f aca="false">1*H4</f>
         <v>4</v>
       </c>
-      <c r="AF4" s="0" t="n">
-        <f aca="false">ROUND(AA4/10, 2)</f>
-        <v>0.6</v>
-      </c>
       <c r="AG4" s="0" t="n">
         <f aca="false">ROUND(AB4/10, 2)</f>
-        <v>-0.02</v>
+        <v>0.6</v>
       </c>
       <c r="AH4" s="0" t="n">
         <f aca="false">ROUND(AC4/10, 2)</f>
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AI4" s="0" t="n">
         <f aca="false">ROUND(AD4/10, 2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <f aca="false">ROUND(AE4/10, 2)</f>
         <v>0.4</v>
       </c>
-      <c r="AJ4" s="0" t="n">
-        <f aca="false">AF4+AG4+AH4+AI4</f>
+      <c r="AK4" s="0" t="n">
+        <f aca="false">AG4+AH4+AI4+AJ4</f>
         <v>1.01</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2586,83 +2587,87 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="11" t="n">
-        <f aca="false">ROUND((C5*5+D5*10+E5*2+F5*4-G5*7+H5*4-I5*4+J5*3+K5*10+L5*5+M5*0) / 54)</f>
+        <f aca="false">ROUND((C5*5+D5*10+E5*2+F5*4-G5*7+H5*4-I5*4+J5*3+K5*10+L5*5+M5*0) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="Q5" s="12" t="n">
-        <f aca="false">ROUND((C5*8+D5*10+E5*2-F5*4-G5*5+H5*2-I5*3+J5*5+K5*5+L5*2+M5*2) / 48)</f>
+        <f aca="false">ROUND((C5*8+D5*10+E5*2-F5*4-G5*5+H5*2-I5*3+J5*5+K5*5+L5*2+M5*2) / 48,0)</f>
         <v>1</v>
       </c>
       <c r="R5" s="12" t="n">
-        <f aca="false">ROUND((C5*0+D5*3+E5*10-F5*3+G5*2+H5*4+I5*5-J5*3-K5*4-L5*2+M5*2) / 38)</f>
+        <f aca="false">ROUND((C5*0+D5*3+E5*10-F5*3+G5*2+H5*4+I5*5-J5*3-K5*4-L5*2+M5*2) / 38,0)</f>
         <v>-1</v>
       </c>
       <c r="S5" s="12" t="n">
-        <f aca="false">ROUND((-C5*3-D5*5+E5*3+F5*1+G5*4+H5*2+I5*10-J5*3+K5*6+L5*8+M5*0) / 45)</f>
+        <f aca="false">ROUND((-C5*3-D5*5+E5*3+F5*1+G5*4+H5*2+I5*10-J5*3+K5*6+L5*8+M5*0) / 45,0)</f>
         <v>0</v>
       </c>
       <c r="T5" s="12" t="n">
-        <f aca="false">ROUND((C5*5+D5*5-E5*3+F5*7-G5*2+H5*7-I5*3+J5*5+K5*8+L5*8+M5*1) / 54)</f>
+        <f aca="false">ROUND((C5*5+D5*5-E5*3+F5*7-G5*2+H5*7-I5*3+J5*5+K5*8+L5*8+M5*1) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="U5" s="12" t="n">
-        <f aca="false">ROUND((-C5*4-D5*2+E5*5+F5*5+G5*2+H5*2-I5*1+J5*7+K5*1+L5*2+M5*10) / 41)</f>
+        <f aca="false">ROUND((-C5*4-D5*2+E5*5+F5*5+G5*2+H5*2-I5*1+J5*7+K5*1+L5*2+M5*10) / 41,0)</f>
         <v>-1</v>
       </c>
       <c r="V5" s="12" t="n">
-        <f aca="false">ROUND((C5*2+D5*4+E5*9+F5*3-G5*3+H5*10-I5*3+J5*3+K5*8+L5*5+M5*0) / 50)</f>
+        <f aca="false">ROUND((C5*2+D5*4+E5*9+F5*3-G5*3+H5*10-I5*3+J5*3+K5*8+L5*5+M5*0) / 50,0)</f>
         <v>0</v>
       </c>
       <c r="W5" s="12" t="n">
-        <f aca="false">ROUND((3*C5-1*D5-10*E5+3*F5-6*G5+6*H5-7*I5+2*J5+1*K5+8*L5-2*M5)/50)</f>
-        <v>1</v>
-      </c>
-      <c r="X5" s="13" t="n">
-        <f aca="false">ROUND((-C5*3+D5*2+E5*2-F5*5+G5*10+H5*3+I5*6-J5*8-K5*3+L5*5+M5*3) / 50)</f>
+        <f aca="false">ROUND((3*C5-1*D5-10*E5+3*F5-6*G5+6*H5-7*I5+2*J5+1*K5+8*L5-2*M5)/50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <f aca="false">ROUND((-C5*3+D5*2+E5*2-F5*5+G5*10+H5*3+I5*6-J5*8-K5*3+L5*5+M5*3) / 50,0)</f>
         <v>-0</v>
       </c>
-      <c r="Y5" s="14" t="n">
-        <f aca="false">SUM(P5:X5)</f>
-        <v>2</v>
-      </c>
-      <c r="AA5" s="0" t="n">
+      <c r="Y5" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="13" t="n">
+        <f aca="false">SUM(P5:Y5)</f>
+        <v>2</v>
+      </c>
+      <c r="AB5" s="0" t="n">
         <f aca="false">0.5*C5+0.5*D5</f>
         <v>3.5</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <f aca="false">0.4*E5+0.1*G5+0.3*I5+0.2*M5</f>
         <v>-0.6</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <f aca="false">0.3*F5+0.2*J5+0.2*K5+0.3*L5</f>
         <v>0.1</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <f aca="false">1*H5</f>
         <v>1</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <f aca="false">ROUND(AA5/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AG5" s="0" t="n">
         <f aca="false">ROUND(AB5/10, 2)</f>
-        <v>-0.06</v>
+        <v>0.35</v>
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">ROUND(AC5/10, 2)</f>
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="AI5" s="0" t="n">
         <f aca="false">ROUND(AD5/10, 2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <f aca="false">ROUND(AE5/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="0" t="n">
-        <f aca="false">AF5+AG5+AH5+AI5</f>
+      <c r="AK5" s="0" t="n">
+        <f aca="false">AG5+AH5+AI5+AJ5</f>
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2705,83 +2710,87 @@
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="11" t="n">
-        <f aca="false">ROUND((C6*5+D6*10+E6*2+F6*4-G6*7+H6*4-I6*4+J6*3+K6*10+L6*5+M6*0) / 54)</f>
+        <f aca="false">ROUND((C6*5+D6*10+E6*2+F6*4-G6*7+H6*4-I6*4+J6*3+K6*10+L6*5+M6*0) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="Q6" s="12" t="n">
-        <f aca="false">ROUND((C6*8+D6*10+E6*2-F6*4-G6*5+H6*2-I6*3+J6*5+K6*5+L6*2+M6*2) / 48)</f>
+        <f aca="false">ROUND((C6*8+D6*10+E6*2-F6*4-G6*5+H6*2-I6*3+J6*5+K6*5+L6*2+M6*2) / 48,0)</f>
         <v>3</v>
       </c>
       <c r="R6" s="12" t="n">
-        <f aca="false">ROUND((C6*0+D6*3+E6*10-F6*3+G6*2+H6*4+I6*5-J6*3-K6*4-L6*2+M6*2) / 38)</f>
+        <f aca="false">ROUND((C6*0+D6*3+E6*10-F6*3+G6*2+H6*4+I6*5-J6*3-K6*4-L6*2+M6*2) / 38,0)</f>
         <v>0</v>
       </c>
       <c r="S6" s="12" t="n">
-        <f aca="false">ROUND((-C6*3-D6*5+E6*3+F6*1+G6*4+H6*2+I6*10-J6*3+K6*6+L6*8+M6*0) / 45)</f>
+        <f aca="false">ROUND((-C6*3-D6*5+E6*3+F6*1+G6*4+H6*2+I6*10-J6*3+K6*6+L6*8+M6*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T6" s="12" t="n">
-        <f aca="false">ROUND((C6*5+D6*5-E6*3+F6*7-G6*2+H6*7-I6*3+J6*5+K6*8+L6*8+M6*1) / 54)</f>
+        <f aca="false">ROUND((C6*5+D6*5-E6*3+F6*7-G6*2+H6*7-I6*3+J6*5+K6*8+L6*8+M6*1) / 54,0)</f>
         <v>2</v>
       </c>
       <c r="U6" s="12" t="n">
-        <f aca="false">ROUND((-C6*4-D6*2+E6*5+F6*5+G6*2+H6*2-I6*1+J6*7+K6*1+L6*2+M6*10) / 41)</f>
+        <f aca="false">ROUND((-C6*4-D6*2+E6*5+F6*5+G6*2+H6*2-I6*1+J6*7+K6*1+L6*2+M6*10) / 41,0)</f>
         <v>0</v>
       </c>
       <c r="V6" s="12" t="n">
-        <f aca="false">ROUND((C6*2+D6*4+E6*9+F6*3-G6*3+H6*10-I6*3+J6*3+K6*8+L6*5+M6*0) / 50)</f>
+        <f aca="false">ROUND((C6*2+D6*4+E6*9+F6*3-G6*3+H6*10-I6*3+J6*3+K6*8+L6*5+M6*0) / 50,0)</f>
         <v>2</v>
       </c>
       <c r="W6" s="12" t="n">
-        <f aca="false">ROUND((3*C6-1*D6-10*E6+3*F6-6*G6+6*H6-7*I6+2*J6+1*K6+8*L6-2*M6)/50)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="13" t="n">
-        <f aca="false">ROUND((-C6*3+D6*2+E6*2-F6*5+G6*10+H6*3+I6*6-J6*8-K6*3+L6*5+M6*3) / 50)</f>
+        <f aca="false">ROUND((3*C6-1*D6-10*E6+3*F6-6*G6+6*H6-7*I6+2*J6+1*K6+8*L6-2*M6)/50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <f aca="false">ROUND((-C6*3+D6*2+E6*2-F6*5+G6*10+H6*3+I6*6-J6*8-K6*3+L6*5+M6*3) / 50,0)</f>
         <v>-0</v>
       </c>
-      <c r="Y6" s="14" t="n">
-        <f aca="false">SUM(P6:X6)</f>
+      <c r="Y6" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13" t="n">
+        <f aca="false">SUM(P6:Y6)</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <f aca="false">0.5*C6+0.5*D6</f>
         <v>5.5</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <f aca="false">0.4*E6+0.1*G6+0.3*I6+0.2*M6</f>
         <v>0.4</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <f aca="false">0.3*F6+0.2*J6+0.2*K6+0.3*L6</f>
         <v>2.1</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <f aca="false">1*H6</f>
         <v>2</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <f aca="false">ROUND(AA6/10, 2)</f>
-        <v>0.55</v>
       </c>
       <c r="AG6" s="0" t="n">
         <f aca="false">ROUND(AB6/10, 2)</f>
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">ROUND(AC6/10, 2)</f>
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="AI6" s="0" t="n">
         <f aca="false">ROUND(AD6/10, 2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <f aca="false">ROUND(AE6/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AJ6" s="0" t="n">
-        <f aca="false">AF6+AG6+AH6+AI6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="AK6" s="0" t="n">
+        <f aca="false">AG6+AH6+AI6+AJ6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2824,83 +2833,87 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="11" t="n">
-        <f aca="false">ROUND((C7*5+D7*10+E7*2+F7*4-G7*7+H7*4-I7*4+J7*3+K7*10+L7*5+M7*0) / 54)</f>
+        <f aca="false">ROUND((C7*5+D7*10+E7*2+F7*4-G7*7+H7*4-I7*4+J7*3+K7*10+L7*5+M7*0) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <f aca="false">ROUND((C7*8+D7*10+E7*2-F7*4-G7*5+H7*2-I7*3+J7*5+K7*5+L7*2+M7*2) / 48)</f>
+        <f aca="false">ROUND((C7*8+D7*10+E7*2-F7*4-G7*5+H7*2-I7*3+J7*5+K7*5+L7*2+M7*2) / 48,0)</f>
         <v>3</v>
       </c>
       <c r="R7" s="12" t="n">
-        <f aca="false">ROUND((C7*0+D7*3+E7*10-F7*3+G7*2+H7*4+I7*5-J7*3-K7*4-L7*2+M7*2) / 38)</f>
+        <f aca="false">ROUND((C7*0+D7*3+E7*10-F7*3+G7*2+H7*4+I7*5-J7*3-K7*4-L7*2+M7*2) / 38,0)</f>
         <v>1</v>
       </c>
       <c r="S7" s="12" t="n">
-        <f aca="false">ROUND((-C7*3-D7*5+E7*3+F7*1+G7*4+H7*2+I7*10-J7*3+K7*6+L7*8+M7*0) / 45)</f>
+        <f aca="false">ROUND((-C7*3-D7*5+E7*3+F7*1+G7*4+H7*2+I7*10-J7*3+K7*6+L7*8+M7*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T7" s="12" t="n">
-        <f aca="false">ROUND((C7*5+D7*5-E7*3+F7*7-G7*2+H7*7-I7*3+J7*5+K7*8+L7*8+M7*1) / 54)</f>
+        <f aca="false">ROUND((C7*5+D7*5-E7*3+F7*7-G7*2+H7*7-I7*3+J7*5+K7*8+L7*8+M7*1) / 54,0)</f>
         <v>2</v>
       </c>
       <c r="U7" s="12" t="n">
-        <f aca="false">ROUND((-C7*4-D7*2+E7*5+F7*5+G7*2+H7*2-I7*1+J7*7+K7*1+L7*2+M7*10) / 41)</f>
+        <f aca="false">ROUND((-C7*4-D7*2+E7*5+F7*5+G7*2+H7*2-I7*1+J7*7+K7*1+L7*2+M7*10) / 41,0)</f>
         <v>-0</v>
       </c>
       <c r="V7" s="12" t="n">
-        <f aca="false">ROUND((C7*2+D7*4+E7*9+F7*3-G7*3+H7*10-I7*3+J7*3+K7*8+L7*5+M7*0) / 50)</f>
+        <f aca="false">ROUND((C7*2+D7*4+E7*9+F7*3-G7*3+H7*10-I7*3+J7*3+K7*8+L7*5+M7*0) / 50,0)</f>
         <v>2</v>
       </c>
       <c r="W7" s="12" t="n">
-        <f aca="false">ROUND((3*C7-1*D7-10*E7+3*F7-6*G7+6*H7-7*I7+2*J7+1*K7+8*L7-2*M7)/50)</f>
+        <f aca="false">ROUND((3*C7-1*D7-10*E7+3*F7-6*G7+6*H7-7*I7+2*J7+1*K7+8*L7-2*M7)/50,0)</f>
         <v>-0</v>
       </c>
-      <c r="X7" s="13" t="n">
-        <f aca="false">ROUND((-C7*3+D7*2+E7*2-F7*5+G7*10+H7*3+I7*6-J7*8-K7*3+L7*5+M7*3) / 50)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14" t="n">
-        <f aca="false">SUM(P7:X7)</f>
+      <c r="X7" s="12" t="n">
+        <f aca="false">ROUND((-C7*3+D7*2+E7*2-F7*5+G7*10+H7*3+I7*6-J7*8-K7*3+L7*5+M7*3) / 50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <f aca="false">SUM(P7:Y7)</f>
         <v>10</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <f aca="false">0.5*C7+0.5*D7</f>
         <v>5.5</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <f aca="false">0.4*E7+0.1*G7+0.3*I7+0.2*M7</f>
         <v>0.4</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <f aca="false">0.3*F7+0.2*J7+0.2*K7+0.3*L7</f>
         <v>0.6</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <f aca="false">1*H7</f>
         <v>2</v>
-      </c>
-      <c r="AF7" s="0" t="n">
-        <f aca="false">ROUND(AA7/10, 2)</f>
-        <v>0.55</v>
       </c>
       <c r="AG7" s="0" t="n">
         <f aca="false">ROUND(AB7/10, 2)</f>
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="AH7" s="0" t="n">
         <f aca="false">ROUND(AC7/10, 2)</f>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AI7" s="0" t="n">
         <f aca="false">ROUND(AD7/10, 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <f aca="false">ROUND(AE7/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AJ7" s="0" t="n">
-        <f aca="false">AF7+AG7+AH7+AI7</f>
+      <c r="AK7" s="0" t="n">
+        <f aca="false">AG7+AH7+AI7+AJ7</f>
         <v>0.85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2943,83 +2956,87 @@
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="11" t="n">
-        <f aca="false">ROUND((C8*5+D8*10+E8*2+F8*4-G8*7+H8*4-I8*4+J8*3+K8*10+L8*5+M8*0) / 54)</f>
+        <f aca="false">ROUND((C8*5+D8*10+E8*2+F8*4-G8*7+H8*4-I8*4+J8*3+K8*10+L8*5+M8*0) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="Q8" s="12" t="n">
-        <f aca="false">ROUND((C8*8+D8*10+E8*2-F8*4-G8*5+H8*2-I8*3+J8*5+K8*5+L8*2+M8*2) / 48)</f>
+        <f aca="false">ROUND((C8*8+D8*10+E8*2-F8*4-G8*5+H8*2-I8*3+J8*5+K8*5+L8*2+M8*2) / 48,0)</f>
         <v>1</v>
       </c>
       <c r="R8" s="12" t="n">
-        <f aca="false">ROUND((C8*0+D8*3+E8*10-F8*3+G8*2+H8*4+I8*5-J8*3-K8*4-L8*2+M8*2) / 38)</f>
+        <f aca="false">ROUND((C8*0+D8*3+E8*10-F8*3+G8*2+H8*4+I8*5-J8*3-K8*4-L8*2+M8*2) / 38,0)</f>
         <v>1</v>
       </c>
       <c r="S8" s="12" t="n">
-        <f aca="false">ROUND((-C8*3-D8*5+E8*3+F8*1+G8*4+H8*2+I8*10-J8*3+K8*6+L8*8+M8*0) / 45)</f>
+        <f aca="false">ROUND((-C8*3-D8*5+E8*3+F8*1+G8*4+H8*2+I8*10-J8*3+K8*6+L8*8+M8*0) / 45,0)</f>
         <v>0</v>
       </c>
       <c r="T8" s="12" t="n">
-        <f aca="false">ROUND((C8*5+D8*5-E8*3+F8*7-G8*2+H8*7-I8*3+J8*5+K8*8+L8*8+M8*1) / 54)</f>
+        <f aca="false">ROUND((C8*5+D8*5-E8*3+F8*7-G8*2+H8*7-I8*3+J8*5+K8*8+L8*8+M8*1) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="U8" s="12" t="n">
-        <f aca="false">ROUND((-C8*4-D8*2+E8*5+F8*5+G8*2+H8*2-I8*1+J8*7+K8*1+L8*2+M8*10) / 41)</f>
+        <f aca="false">ROUND((-C8*4-D8*2+E8*5+F8*5+G8*2+H8*2-I8*1+J8*7+K8*1+L8*2+M8*10) / 41,0)</f>
         <v>0</v>
       </c>
       <c r="V8" s="12" t="n">
-        <f aca="false">ROUND((C8*2+D8*4+E8*9+F8*3-G8*3+H8*10-I8*3+J8*3+K8*8+L8*5+M8*0) / 50)</f>
+        <f aca="false">ROUND((C8*2+D8*4+E8*9+F8*3-G8*3+H8*10-I8*3+J8*3+K8*8+L8*5+M8*0) / 50,0)</f>
         <v>1</v>
       </c>
       <c r="W8" s="12" t="n">
-        <f aca="false">ROUND((3*C8-1*D8-10*E8+3*F8-6*G8+6*H8-7*I8+2*J8+1*K8+8*L8-2*M8)/50)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="13" t="n">
-        <f aca="false">ROUND((-C8*3+D8*2+E8*2-F8*5+G8*10+H8*3+I8*6-J8*8-K8*3+L8*5+M8*3) / 50)</f>
+        <f aca="false">ROUND((3*C8-1*D8-10*E8+3*F8-6*G8+6*H8-7*I8+2*J8+1*K8+8*L8-2*M8)/50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <f aca="false">ROUND((-C8*3+D8*2+E8*2-F8*5+G8*10+H8*3+I8*6-J8*8-K8*3+L8*5+M8*3) / 50,0)</f>
         <v>-0</v>
       </c>
-      <c r="Y8" s="14" t="n">
-        <f aca="false">SUM(P8:X8)</f>
+      <c r="Y8" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <f aca="false">SUM(P8:Y8)</f>
         <v>5</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <f aca="false">0.5*C8+0.5*D8</f>
         <v>3.5</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <f aca="false">0.4*E8+0.1*G8+0.3*I8+0.2*M8</f>
         <v>1.8</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <f aca="false">0.3*F8+0.2*J8+0.2*K8+0.3*L8</f>
         <v>0.4</v>
       </c>
-      <c r="AD8" s="0" t="n">
+      <c r="AE8" s="0" t="n">
         <f aca="false">1*H8</f>
         <v>1</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <f aca="false">ROUND(AA8/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AG8" s="0" t="n">
         <f aca="false">ROUND(AB8/10, 2)</f>
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="AH8" s="0" t="n">
         <f aca="false">ROUND(AC8/10, 2)</f>
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AI8" s="0" t="n">
         <f aca="false">ROUND(AD8/10, 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <f aca="false">ROUND(AE8/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ8" s="0" t="n">
-        <f aca="false">AF8+AG8+AH8+AI8</f>
+      <c r="AK8" s="0" t="n">
+        <f aca="false">AG8+AH8+AI8+AJ8</f>
         <v>0.67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3062,83 +3079,87 @@
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="11" t="n">
-        <f aca="false">ROUND((C9*5+D9*10+E9*2+F9*4-G9*7+H9*4-I9*4+J9*3+K9*10+L9*5+M9*0) / 54)</f>
+        <f aca="false">ROUND((C9*5+D9*10+E9*2+F9*4-G9*7+H9*4-I9*4+J9*3+K9*10+L9*5+M9*0) / 54,0)</f>
         <v>-0</v>
       </c>
       <c r="Q9" s="12" t="n">
-        <f aca="false">ROUND((C9*8+D9*10+E9*2-F9*4-G9*5+H9*2-I9*3+J9*5+K9*5+L9*2+M9*2) / 48)</f>
+        <f aca="false">ROUND((C9*8+D9*10+E9*2-F9*4-G9*5+H9*2-I9*3+J9*5+K9*5+L9*2+M9*2) / 48,0)</f>
         <v>-0</v>
       </c>
       <c r="R9" s="12" t="n">
-        <f aca="false">ROUND((C9*0+D9*3+E9*10-F9*3+G9*2+H9*4+I9*5-J9*3-K9*4-L9*2+M9*2) / 38)</f>
+        <f aca="false">ROUND((C9*0+D9*3+E9*10-F9*3+G9*2+H9*4+I9*5-J9*3-K9*4-L9*2+M9*2) / 38,0)</f>
         <v>3</v>
       </c>
       <c r="S9" s="12" t="n">
-        <f aca="false">ROUND((-C9*3-D9*5+E9*3+F9*1+G9*4+H9*2+I9*10-J9*3+K9*6+L9*8+M9*0) / 45)</f>
+        <f aca="false">ROUND((-C9*3-D9*5+E9*3+F9*1+G9*4+H9*2+I9*10-J9*3+K9*6+L9*8+M9*0) / 45,0)</f>
         <v>4</v>
       </c>
       <c r="T9" s="12" t="n">
-        <f aca="false">ROUND((C9*5+D9*5-E9*3+F9*7-G9*2+H9*7-I9*3+J9*5+K9*8+L9*8+M9*1) / 54)</f>
+        <f aca="false">ROUND((C9*5+D9*5-E9*3+F9*7-G9*2+H9*7-I9*3+J9*5+K9*8+L9*8+M9*1) / 54,0)</f>
         <v>-1</v>
       </c>
       <c r="U9" s="12" t="n">
-        <f aca="false">ROUND((-C9*4-D9*2+E9*5+F9*5+G9*2+H9*2-I9*1+J9*7+K9*1+L9*2+M9*10) / 41)</f>
+        <f aca="false">ROUND((-C9*4-D9*2+E9*5+F9*5+G9*2+H9*2-I9*1+J9*7+K9*1+L9*2+M9*10) / 41,0)</f>
         <v>1</v>
       </c>
       <c r="V9" s="12" t="n">
-        <f aca="false">ROUND((C9*2+D9*4+E9*9+F9*3-G9*3+H9*10-I9*3+J9*3+K9*8+L9*5+M9*0) / 50)</f>
+        <f aca="false">ROUND((C9*2+D9*4+E9*9+F9*3-G9*3+H9*10-I9*3+J9*3+K9*8+L9*5+M9*0) / 50,0)</f>
         <v>2</v>
       </c>
       <c r="W9" s="12" t="n">
-        <f aca="false">ROUND((3*C9-1*D9-10*E9+3*F9-6*G9+6*H9-7*I9+2*J9+1*K9+8*L9-2*M9)/50)</f>
+        <f aca="false">ROUND((3*C9-1*D9-10*E9+3*F9-6*G9+6*H9-7*I9+2*J9+1*K9+8*L9-2*M9)/50,0)</f>
         <v>-3</v>
       </c>
-      <c r="X9" s="13" t="n">
-        <f aca="false">ROUND((-C9*3+D9*2+E9*2-F9*5+G9*10+H9*3+I9*6-J9*8-K9*3+L9*5+M9*3) / 50)</f>
-        <v>2</v>
-      </c>
-      <c r="Y9" s="14" t="n">
-        <f aca="false">SUM(P9:X9)</f>
+      <c r="X9" s="12" t="n">
+        <f aca="false">ROUND((-C9*3+D9*2+E9*2-F9*5+G9*10+H9*3+I9*6-J9*8-K9*3+L9*5+M9*3) / 50,0)</f>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <f aca="false">SUM(P9:Y9)</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <f aca="false">0.5*C9+0.5*D9</f>
         <v>-2.5</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <f aca="false">0.4*E9+0.1*G9+0.3*I9+0.2*M9</f>
         <v>6</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <f aca="false">0.3*F9+0.2*J9+0.2*K9+0.3*L9</f>
         <v>-0.0999999999999999</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <f aca="false">1*H9</f>
         <v>-1</v>
-      </c>
-      <c r="AF9" s="0" t="n">
-        <f aca="false">ROUND(AA9/10, 2)</f>
-        <v>-0.25</v>
       </c>
       <c r="AG9" s="0" t="n">
         <f aca="false">ROUND(AB9/10, 2)</f>
-        <v>0.6</v>
+        <v>-0.25</v>
       </c>
       <c r="AH9" s="0" t="n">
         <f aca="false">ROUND(AC9/10, 2)</f>
-        <v>-0.01</v>
+        <v>0.6</v>
       </c>
       <c r="AI9" s="0" t="n">
         <f aca="false">ROUND(AD9/10, 2)</f>
+        <v>-0.01</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
+        <f aca="false">ROUND(AE9/10, 2)</f>
         <v>-0.1</v>
       </c>
-      <c r="AJ9" s="0" t="n">
-        <f aca="false">AF9+AG9+AH9+AI9</f>
+      <c r="AK9" s="0" t="n">
+        <f aca="false">AG9+AH9+AI9+AJ9</f>
         <v>0.24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3181,83 +3202,87 @@
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="11" t="n">
-        <f aca="false">ROUND((C10*5+D10*10+E10*2+F10*4-G10*7+H10*4-I10*4+J10*3+K10*10+L10*5+M10*0) / 54)</f>
+        <f aca="false">ROUND((C10*5+D10*10+E10*2+F10*4-G10*7+H10*4-I10*4+J10*3+K10*10+L10*5+M10*0) / 54,0)</f>
         <v>4</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <f aca="false">ROUND((C10*8+D10*10+E10*2-F10*4-G10*5+H10*2-I10*3+J10*5+K10*5+L10*2+M10*2) / 48)</f>
+        <f aca="false">ROUND((C10*8+D10*10+E10*2-F10*4-G10*5+H10*2-I10*3+J10*5+K10*5+L10*2+M10*2) / 48,0)</f>
         <v>3</v>
       </c>
       <c r="R10" s="12" t="n">
-        <f aca="false">ROUND((C10*0+D10*3+E10*10-F10*3+G10*2+H10*4+I10*5-J10*3-K10*4-L10*2+M10*2) / 38)</f>
+        <f aca="false">ROUND((C10*0+D10*3+E10*10-F10*3+G10*2+H10*4+I10*5-J10*3-K10*4-L10*2+M10*2) / 38,0)</f>
         <v>-2</v>
       </c>
       <c r="S10" s="12" t="n">
-        <f aca="false">ROUND((-C10*3-D10*5+E10*3+F10*1+G10*4+H10*2+I10*10-J10*3+K10*6+L10*8+M10*0) / 45)</f>
+        <f aca="false">ROUND((-C10*3-D10*5+E10*3+F10*1+G10*4+H10*2+I10*10-J10*3+K10*6+L10*8+M10*0) / 45,0)</f>
         <v>1</v>
       </c>
       <c r="T10" s="12" t="n">
-        <f aca="false">ROUND((C10*5+D10*5-E10*3+F10*7-G10*2+H10*7-I10*3+J10*5+K10*8+L10*8+M10*1) / 54)</f>
+        <f aca="false">ROUND((C10*5+D10*5-E10*3+F10*7-G10*2+H10*7-I10*3+J10*5+K10*8+L10*8+M10*1) / 54,0)</f>
         <v>4</v>
       </c>
       <c r="U10" s="12" t="n">
-        <f aca="false">ROUND((-C10*4-D10*2+E10*5+F10*5+G10*2+H10*2-I10*1+J10*7+K10*1+L10*2+M10*10) / 41)</f>
+        <f aca="false">ROUND((-C10*4-D10*2+E10*5+F10*5+G10*2+H10*2-I10*1+J10*7+K10*1+L10*2+M10*10) / 41,0)</f>
         <v>1</v>
       </c>
       <c r="V10" s="12" t="n">
-        <f aca="false">ROUND((C10*2+D10*4+E10*9+F10*3-G10*3+H10*10-I10*3+J10*3+K10*8+L10*5+M10*0) / 50)</f>
+        <f aca="false">ROUND((C10*2+D10*4+E10*9+F10*3-G10*3+H10*10-I10*3+J10*3+K10*8+L10*5+M10*0) / 50,0)</f>
         <v>4</v>
       </c>
       <c r="W10" s="12" t="n">
-        <f aca="false">ROUND((3*C10-1*D10-10*E10+3*F10-6*G10+6*H10-7*I10+2*J10+1*K10+8*L10-2*M10)/50)</f>
-        <v>3</v>
-      </c>
-      <c r="X10" s="13" t="n">
-        <f aca="false">ROUND((-C10*3+D10*2+E10*2-F10*5+G10*10+H10*3+I10*6-J10*8-K10*3+L10*5+M10*3) / 50)</f>
-        <v>-1</v>
-      </c>
-      <c r="Y10" s="14" t="n">
-        <f aca="false">SUM(P10:X10)</f>
+        <f aca="false">ROUND((3*C10-1*D10-10*E10+3*F10-6*G10+6*H10-7*I10+2*J10+1*K10+8*L10-2*M10)/50,0)</f>
+        <v>3</v>
+      </c>
+      <c r="X10" s="12" t="n">
+        <f aca="false">ROUND((-C10*3+D10*2+E10*2-F10*5+G10*10+H10*3+I10*6-J10*8-K10*3+L10*5+M10*3) / 50,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <f aca="false">SUM(P10:Y10)</f>
         <v>17</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <f aca="false">0.5*C10+0.5*D10</f>
         <v>3.5</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <f aca="false">0.4*E10+0.1*G10+0.3*I10+0.2*M10</f>
         <v>-1.5</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <f aca="false">0.3*F10+0.2*J10+0.2*K10+0.3*L10</f>
         <v>4.5</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <f aca="false">1*H10</f>
         <v>6</v>
       </c>
-      <c r="AF10" s="0" t="n">
-        <f aca="false">ROUND(AA10/10, 2)</f>
-        <v>0.35</v>
-      </c>
       <c r="AG10" s="0" t="n">
         <f aca="false">ROUND(AB10/10, 2)</f>
-        <v>-0.15</v>
+        <v>0.35</v>
       </c>
       <c r="AH10" s="0" t="n">
         <f aca="false">ROUND(AC10/10, 2)</f>
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
       <c r="AI10" s="0" t="n">
         <f aca="false">ROUND(AD10/10, 2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <f aca="false">ROUND(AE10/10, 2)</f>
         <v>0.6</v>
       </c>
-      <c r="AJ10" s="0" t="n">
-        <f aca="false">AF10+AG10+AH10+AI10</f>
+      <c r="AK10" s="0" t="n">
+        <f aca="false">AG10+AH10+AI10+AJ10</f>
         <v>1.25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3300,83 +3325,87 @@
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="11" t="n">
-        <f aca="false">ROUND((C11*5+D11*10+E11*2+F11*4-G11*7+H11*4-I11*4+J11*3+K11*10+L11*5+M11*0) / 54)</f>
+        <f aca="false">ROUND((C11*5+D11*10+E11*2+F11*4-G11*7+H11*4-I11*4+J11*3+K11*10+L11*5+M11*0) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <f aca="false">ROUND((C11*8+D11*10+E11*2-F11*4-G11*5+H11*2-I11*3+J11*5+K11*5+L11*2+M11*2) / 48)</f>
+        <f aca="false">ROUND((C11*8+D11*10+E11*2-F11*4-G11*5+H11*2-I11*3+J11*5+K11*5+L11*2+M11*2) / 48,0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="12" t="n">
-        <f aca="false">ROUND((C11*0+D11*3+E11*10-F11*3+G11*2+H11*4+I11*5-J11*3-K11*4-L11*2+M11*2) / 38)</f>
+        <f aca="false">ROUND((C11*0+D11*3+E11*10-F11*3+G11*2+H11*4+I11*5-J11*3-K11*4-L11*2+M11*2) / 38,0)</f>
         <v>-3</v>
       </c>
       <c r="S11" s="12" t="n">
-        <f aca="false">ROUND((-C11*3-D11*5+E11*3+F11*1+G11*4+H11*2+I11*10-J11*3+K11*6+L11*8+M11*0) / 45)</f>
+        <f aca="false">ROUND((-C11*3-D11*5+E11*3+F11*1+G11*4+H11*2+I11*10-J11*3+K11*6+L11*8+M11*0) / 45,0)</f>
         <v>3</v>
       </c>
       <c r="T11" s="12" t="n">
-        <f aca="false">ROUND((C11*5+D11*5-E11*3+F11*7-G11*2+H11*7-I11*3+J11*5+K11*8+L11*8+M11*1) / 54)</f>
+        <f aca="false">ROUND((C11*5+D11*5-E11*3+F11*7-G11*2+H11*7-I11*3+J11*5+K11*8+L11*8+M11*1) / 54,0)</f>
         <v>4</v>
       </c>
       <c r="U11" s="12" t="n">
-        <f aca="false">ROUND((-C11*4-D11*2+E11*5+F11*5+G11*2+H11*2-I11*1+J11*7+K11*1+L11*2+M11*10) / 41)</f>
+        <f aca="false">ROUND((-C11*4-D11*2+E11*5+F11*5+G11*2+H11*2-I11*1+J11*7+K11*1+L11*2+M11*10) / 41,0)</f>
         <v>1</v>
       </c>
       <c r="V11" s="12" t="n">
-        <f aca="false">ROUND((C11*2+D11*4+E11*9+F11*3-G11*3+H11*10-I11*3+J11*3+K11*8+L11*5+M11*0) / 50)</f>
+        <f aca="false">ROUND((C11*2+D11*4+E11*9+F11*3-G11*3+H11*10-I11*3+J11*3+K11*8+L11*5+M11*0) / 50,0)</f>
         <v>3</v>
       </c>
       <c r="W11" s="12" t="n">
-        <f aca="false">ROUND((3*C11-1*D11-10*E11+3*F11-6*G11+6*H11-7*I11+2*J11+1*K11+8*L11-2*M11)/50)</f>
+        <f aca="false">ROUND((3*C11-1*D11-10*E11+3*F11-6*G11+6*H11-7*I11+2*J11+1*K11+8*L11-2*M11)/50,0)</f>
         <v>4</v>
       </c>
-      <c r="X11" s="13" t="n">
-        <f aca="false">ROUND((-C11*3+D11*2+E11*2-F11*5+G11*10+H11*3+I11*6-J11*8-K11*3+L11*5+M11*3) / 50)</f>
-        <v>-1</v>
-      </c>
-      <c r="Y11" s="14" t="n">
-        <f aca="false">SUM(P11:X11)</f>
+      <c r="X11" s="12" t="n">
+        <f aca="false">ROUND((-C11*3+D11*2+E11*2-F11*5+G11*10+H11*3+I11*6-J11*8-K11*3+L11*5+M11*3) / 50,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <f aca="false">SUM(P11:Y11)</f>
         <v>14</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <f aca="false">0.5*C11+0.5*D11</f>
         <v>-2</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <f aca="false">0.4*E11+0.1*G11+0.3*I11+0.2*M11</f>
         <v>-2.8</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <f aca="false">0.3*F11+0.2*J11+0.2*K11+0.3*L11</f>
         <v>6.5</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <f aca="false">1*H11</f>
         <v>5</v>
       </c>
-      <c r="AF11" s="0" t="n">
-        <f aca="false">ROUND(AA11/10, 2)</f>
-        <v>-0.2</v>
-      </c>
       <c r="AG11" s="0" t="n">
         <f aca="false">ROUND(AB11/10, 2)</f>
-        <v>-0.28</v>
+        <v>-0.2</v>
       </c>
       <c r="AH11" s="0" t="n">
         <f aca="false">ROUND(AC11/10, 2)</f>
-        <v>0.65</v>
+        <v>-0.28</v>
       </c>
       <c r="AI11" s="0" t="n">
         <f aca="false">ROUND(AD11/10, 2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <f aca="false">ROUND(AE11/10, 2)</f>
         <v>0.5</v>
       </c>
-      <c r="AJ11" s="0" t="n">
-        <f aca="false">AF11+AG11+AH11+AI11</f>
+      <c r="AK11" s="0" t="n">
+        <f aca="false">AG11+AH11+AI11+AJ11</f>
         <v>0.67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3419,83 +3448,87 @@
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="11" t="n">
-        <f aca="false">ROUND((C12*5+D12*10+E12*2+F12*4-G12*7+H12*4-I12*4+J12*3+K12*10+L12*5+M12*0) / 54)</f>
+        <f aca="false">ROUND((C12*5+D12*10+E12*2+F12*4-G12*7+H12*4-I12*4+J12*3+K12*10+L12*5+M12*0) / 54,0)</f>
         <v>2</v>
       </c>
       <c r="Q12" s="12" t="n">
-        <f aca="false">ROUND((C12*8+D12*10+E12*2-F12*4-G12*5+H12*2-I12*3+J12*5+K12*5+L12*2+M12*2) / 48)</f>
+        <f aca="false">ROUND((C12*8+D12*10+E12*2-F12*4-G12*5+H12*2-I12*3+J12*5+K12*5+L12*2+M12*2) / 48,0)</f>
         <v>0</v>
       </c>
       <c r="R12" s="12" t="n">
-        <f aca="false">ROUND((C12*0+D12*3+E12*10-F12*3+G12*2+H12*4+I12*5-J12*3-K12*4-L12*2+M12*2) / 38)</f>
+        <f aca="false">ROUND((C12*0+D12*3+E12*10-F12*3+G12*2+H12*4+I12*5-J12*3-K12*4-L12*2+M12*2) / 38,0)</f>
         <v>-5</v>
       </c>
       <c r="S12" s="12" t="n">
-        <f aca="false">ROUND((-C12*3-D12*5+E12*3+F12*1+G12*4+H12*2+I12*10-J12*3+K12*6+L12*8+M12*0) / 45)</f>
+        <f aca="false">ROUND((-C12*3-D12*5+E12*3+F12*1+G12*4+H12*2+I12*10-J12*3+K12*6+L12*8+M12*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T12" s="12" t="n">
-        <f aca="false">ROUND((C12*5+D12*5-E12*3+F12*7-G12*2+H12*7-I12*3+J12*5+K12*8+L12*8+M12*1) / 54)</f>
+        <f aca="false">ROUND((C12*5+D12*5-E12*3+F12*7-G12*2+H12*7-I12*3+J12*5+K12*8+L12*8+M12*1) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="U12" s="12" t="n">
-        <f aca="false">ROUND((-C12*4-D12*2+E12*5+F12*5+G12*2+H12*2-I12*1+J12*7+K12*1+L12*2+M12*10) / 41)</f>
+        <f aca="false">ROUND((-C12*4-D12*2+E12*5+F12*5+G12*2+H12*2-I12*1+J12*7+K12*1+L12*2+M12*10) / 41,0)</f>
         <v>-0</v>
       </c>
       <c r="V12" s="12" t="n">
-        <f aca="false">ROUND((C12*2+D12*4+E12*9+F12*3-G12*3+H12*10-I12*3+J12*3+K12*8+L12*5+M12*0) / 50)</f>
+        <f aca="false">ROUND((C12*2+D12*4+E12*9+F12*3-G12*3+H12*10-I12*3+J12*3+K12*8+L12*5+M12*0) / 50,0)</f>
         <v>0</v>
       </c>
       <c r="W12" s="12" t="n">
-        <f aca="false">ROUND((3*C12-1*D12-10*E12+3*F12-6*G12+6*H12-7*I12+2*J12+1*K12+8*L12-2*M12)/50)</f>
+        <f aca="false">ROUND((3*C12-1*D12-10*E12+3*F12-6*G12+6*H12-7*I12+2*J12+1*K12+8*L12-2*M12)/50,0)</f>
         <v>5</v>
       </c>
-      <c r="X12" s="13" t="n">
-        <f aca="false">ROUND((-C12*3+D12*2+E12*2-F12*5+G12*10+H12*3+I12*6-J12*8-K12*3+L12*5+M12*3) / 50)</f>
+      <c r="X12" s="12" t="n">
+        <f aca="false">ROUND((-C12*3+D12*2+E12*2-F12*5+G12*10+H12*3+I12*6-J12*8-K12*3+L12*5+M12*3) / 50,0)</f>
         <v>-3</v>
       </c>
-      <c r="Y12" s="14" t="n">
-        <f aca="false">SUM(P12:X12)</f>
-        <v>1</v>
-      </c>
-      <c r="AA12" s="0" t="n">
+      <c r="Y12" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <f aca="false">SUM(P12:Y12)</f>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="0" t="n">
         <f aca="false">0.5*C12+0.5*D12</f>
         <v>-1</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <f aca="false">0.4*E12+0.1*G12+0.3*I12+0.2*M12</f>
         <v>-6.8</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <f aca="false">0.3*F12+0.2*J12+0.2*K12+0.3*L12</f>
         <v>3.3</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <f aca="false">1*H12</f>
         <v>2</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <f aca="false">ROUND(AA12/10, 2)</f>
-        <v>-0.1</v>
       </c>
       <c r="AG12" s="0" t="n">
         <f aca="false">ROUND(AB12/10, 2)</f>
-        <v>-0.68</v>
+        <v>-0.1</v>
       </c>
       <c r="AH12" s="0" t="n">
         <f aca="false">ROUND(AC12/10, 2)</f>
-        <v>0.33</v>
+        <v>-0.68</v>
       </c>
       <c r="AI12" s="0" t="n">
         <f aca="false">ROUND(AD12/10, 2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <f aca="false">ROUND(AE12/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AJ12" s="0" t="n">
-        <f aca="false">AF12+AG12+AH12+AI12</f>
+      <c r="AK12" s="0" t="n">
+        <f aca="false">AG12+AH12+AI12+AJ12</f>
         <v>-0.25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3538,83 +3571,87 @@
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="11" t="n">
-        <f aca="false">ROUND((C13*5+D13*10+E13*2+F13*4-G13*7+H13*4-I13*4+J13*3+K13*10+L13*5+M13*0) / 54)</f>
+        <f aca="false">ROUND((C13*5+D13*10+E13*2+F13*4-G13*7+H13*4-I13*4+J13*3+K13*10+L13*5+M13*0) / 54,0)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="12" t="n">
-        <f aca="false">ROUND((C13*8+D13*10+E13*2-F13*4-G13*5+H13*2-I13*3+J13*5+K13*5+L13*2+M13*2) / 48)</f>
+        <f aca="false">ROUND((C13*8+D13*10+E13*2-F13*4-G13*5+H13*2-I13*3+J13*5+K13*5+L13*2+M13*2) / 48,0)</f>
         <v>1</v>
       </c>
       <c r="R13" s="12" t="n">
-        <f aca="false">ROUND((C13*0+D13*3+E13*10-F13*3+G13*2+H13*4+I13*5-J13*3-K13*4-L13*2+M13*2) / 38)</f>
+        <f aca="false">ROUND((C13*0+D13*3+E13*10-F13*3+G13*2+H13*4+I13*5-J13*3-K13*4-L13*2+M13*2) / 38,0)</f>
         <v>-1</v>
       </c>
       <c r="S13" s="12" t="n">
-        <f aca="false">ROUND((-C13*3-D13*5+E13*3+F13*1+G13*4+H13*2+I13*10-J13*3+K13*6+L13*8+M13*0) / 45)</f>
+        <f aca="false">ROUND((-C13*3-D13*5+E13*3+F13*1+G13*4+H13*2+I13*10-J13*3+K13*6+L13*8+M13*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T13" s="12" t="n">
-        <f aca="false">ROUND((C13*5+D13*5-E13*3+F13*7-G13*2+H13*7-I13*3+J13*5+K13*8+L13*8+M13*1) / 54)</f>
+        <f aca="false">ROUND((C13*5+D13*5-E13*3+F13*7-G13*2+H13*7-I13*3+J13*5+K13*8+L13*8+M13*1) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="U13" s="12" t="n">
-        <f aca="false">ROUND((-C13*4-D13*2+E13*5+F13*5+G13*2+H13*2-I13*1+J13*7+K13*1+L13*2+M13*10) / 41)</f>
+        <f aca="false">ROUND((-C13*4-D13*2+E13*5+F13*5+G13*2+H13*2-I13*1+J13*7+K13*1+L13*2+M13*10) / 41,0)</f>
         <v>-1</v>
       </c>
       <c r="V13" s="12" t="n">
-        <f aca="false">ROUND((C13*2+D13*4+E13*9+F13*3-G13*3+H13*10-I13*3+J13*3+K13*8+L13*5+M13*0) / 50)</f>
+        <f aca="false">ROUND((C13*2+D13*4+E13*9+F13*3-G13*3+H13*10-I13*3+J13*3+K13*8+L13*5+M13*0) / 50,0)</f>
         <v>-0</v>
       </c>
       <c r="W13" s="12" t="n">
-        <f aca="false">ROUND((3*C13-1*D13-10*E13+3*F13-6*G13+6*H13-7*I13+2*J13+1*K13+8*L13-2*M13)/50)</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="13" t="n">
-        <f aca="false">ROUND((-C13*3+D13*2+E13*2-F13*5+G13*10+H13*3+I13*6-J13*8-K13*3+L13*5+M13*3) / 50)</f>
-        <v>-1</v>
-      </c>
-      <c r="Y13" s="14" t="n">
-        <f aca="false">SUM(P13:X13)</f>
-        <v>-1</v>
-      </c>
-      <c r="AA13" s="0" t="n">
+        <f aca="false">ROUND((3*C13-1*D13-10*E13+3*F13-6*G13+6*H13-7*I13+2*J13+1*K13+8*L13-2*M13)/50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <f aca="false">ROUND((-C13*3+D13*2+E13*2-F13*5+G13*10+H13*3+I13*6-J13*8-K13*3+L13*5+M13*3) / 50,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <f aca="false">SUM(P13:Y13)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="0" t="n">
         <f aca="false">0.5*C13+0.5*D13</f>
         <v>3.5</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <f aca="false">0.4*E13+0.1*G13+0.3*I13+0.2*M13</f>
         <v>-0.4</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <f aca="false">0.3*F13+0.2*J13+0.2*K13+0.3*L13</f>
         <v>-0.8</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <f aca="false">1*H13</f>
         <v>1</v>
-      </c>
-      <c r="AF13" s="0" t="n">
-        <f aca="false">ROUND(AA13/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AG13" s="0" t="n">
         <f aca="false">ROUND(AB13/10, 2)</f>
-        <v>-0.04</v>
+        <v>0.35</v>
       </c>
       <c r="AH13" s="0" t="n">
         <f aca="false">ROUND(AC13/10, 2)</f>
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AI13" s="0" t="n">
         <f aca="false">ROUND(AD13/10, 2)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="AJ13" s="0" t="n">
+        <f aca="false">ROUND(AE13/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ13" s="0" t="n">
-        <f aca="false">AF13+AG13+AH13+AI13</f>
+      <c r="AK13" s="0" t="n">
+        <f aca="false">AG13+AH13+AI13+AJ13</f>
         <v>0.33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3657,83 +3694,87 @@
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="11" t="n">
-        <f aca="false">ROUND((C14*5+D14*10+E14*2+F14*4-G14*7+H14*4-I14*4+J14*3+K14*10+L14*5+M14*0) / 54)</f>
+        <f aca="false">ROUND((C14*5+D14*10+E14*2+F14*4-G14*7+H14*4-I14*4+J14*3+K14*10+L14*5+M14*0) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="Q14" s="12" t="n">
-        <f aca="false">ROUND((C14*8+D14*10+E14*2-F14*4-G14*5+H14*2-I14*3+J14*5+K14*5+L14*2+M14*2) / 48)</f>
+        <f aca="false">ROUND((C14*8+D14*10+E14*2-F14*4-G14*5+H14*2-I14*3+J14*5+K14*5+L14*2+M14*2) / 48,0)</f>
         <v>2</v>
       </c>
       <c r="R14" s="12" t="n">
-        <f aca="false">ROUND((C14*0+D14*3+E14*10-F14*3+G14*2+H14*4+I14*5-J14*3-K14*4-L14*2+M14*2) / 38)</f>
+        <f aca="false">ROUND((C14*0+D14*3+E14*10-F14*3+G14*2+H14*4+I14*5-J14*3-K14*4-L14*2+M14*2) / 38,0)</f>
         <v>0</v>
       </c>
       <c r="S14" s="12" t="n">
-        <f aca="false">ROUND((-C14*3-D14*5+E14*3+F14*1+G14*4+H14*2+I14*10-J14*3+K14*6+L14*8+M14*0) / 45)</f>
+        <f aca="false">ROUND((-C14*3-D14*5+E14*3+F14*1+G14*4+H14*2+I14*10-J14*3+K14*6+L14*8+M14*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T14" s="12" t="n">
-        <f aca="false">ROUND((C14*5+D14*5-E14*3+F14*7-G14*2+H14*7-I14*3+J14*5+K14*8+L14*8+M14*1) / 54)</f>
+        <f aca="false">ROUND((C14*5+D14*5-E14*3+F14*7-G14*2+H14*7-I14*3+J14*5+K14*8+L14*8+M14*1) / 54,0)</f>
         <v>0</v>
       </c>
       <c r="U14" s="12" t="n">
-        <f aca="false">ROUND((-C14*4-D14*2+E14*5+F14*5+G14*2+H14*2-I14*1+J14*7+K14*1+L14*2+M14*10) / 41)</f>
+        <f aca="false">ROUND((-C14*4-D14*2+E14*5+F14*5+G14*2+H14*2-I14*1+J14*7+K14*1+L14*2+M14*10) / 41,0)</f>
         <v>-4</v>
       </c>
       <c r="V14" s="12" t="n">
-        <f aca="false">ROUND((C14*2+D14*4+E14*9+F14*3-G14*3+H14*10-I14*3+J14*3+K14*8+L14*5+M14*0) / 50)</f>
+        <f aca="false">ROUND((C14*2+D14*4+E14*9+F14*3-G14*3+H14*10-I14*3+J14*3+K14*8+L14*5+M14*0) / 50,0)</f>
         <v>-0</v>
       </c>
       <c r="W14" s="12" t="n">
-        <f aca="false">ROUND((3*C14-1*D14-10*E14+3*F14-6*G14+6*H14-7*I14+2*J14+1*K14+8*L14-2*M14)/50)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="13" t="n">
-        <f aca="false">ROUND((-C14*3+D14*2+E14*2-F14*5+G14*10+H14*3+I14*6-J14*8-K14*3+L14*5+M14*3) / 50)</f>
+        <f aca="false">ROUND((3*C14-1*D14-10*E14+3*F14-6*G14+6*H14-7*I14+2*J14+1*K14+8*L14-2*M14)/50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <f aca="false">ROUND((-C14*3+D14*2+E14*2-F14*5+G14*10+H14*3+I14*6-J14*8-K14*3+L14*5+M14*3) / 50,0)</f>
         <v>-0</v>
       </c>
-      <c r="Y14" s="14" t="n">
-        <f aca="false">SUM(P14:X14)</f>
-        <v>-2</v>
-      </c>
-      <c r="AA14" s="0" t="n">
+      <c r="Y14" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <f aca="false">SUM(P14:Y14)</f>
+        <v>-2</v>
+      </c>
+      <c r="AB14" s="0" t="n">
         <f aca="false">0.5*C14+0.5*D14</f>
         <v>6</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <f aca="false">0.4*E14+0.1*G14+0.3*I14+0.2*M14</f>
         <v>-1.8</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <f aca="false">0.3*F14+0.2*J14+0.2*K14+0.3*L14</f>
         <v>-2.6</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <f aca="false">1*H14</f>
         <v>1</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <f aca="false">ROUND(AA14/10, 2)</f>
-        <v>0.6</v>
       </c>
       <c r="AG14" s="0" t="n">
         <f aca="false">ROUND(AB14/10, 2)</f>
-        <v>-0.18</v>
+        <v>0.6</v>
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">ROUND(AC14/10, 2)</f>
-        <v>-0.26</v>
+        <v>-0.18</v>
       </c>
       <c r="AI14" s="0" t="n">
         <f aca="false">ROUND(AD14/10, 2)</f>
+        <v>-0.26</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <f aca="false">ROUND(AE14/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ14" s="0" t="n">
-        <f aca="false">AF14+AG14+AH14+AI14</f>
+      <c r="AK14" s="0" t="n">
+        <f aca="false">AG14+AH14+AI14+AJ14</f>
         <v>0.26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
@@ -3776,83 +3817,87 @@
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="11" t="n">
-        <f aca="false">ROUND((C15*5+D15*10+E15*2+F15*4-G15*7+H15*4-I15*4+J15*3+K15*10+L15*5+M15*0) / 54)</f>
+        <f aca="false">ROUND((C15*5+D15*10+E15*2+F15*4-G15*7+H15*4-I15*4+J15*3+K15*10+L15*5+M15*0) / 54,0)</f>
         <v>-2</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <f aca="false">ROUND((C15*8+D15*10+E15*2-F15*4-G15*5+H15*2-I15*3+J15*5+K15*5+L15*2+M15*2) / 48)</f>
+        <f aca="false">ROUND((C15*8+D15*10+E15*2-F15*4-G15*5+H15*2-I15*3+J15*5+K15*5+L15*2+M15*2) / 48,0)</f>
         <v>-1</v>
       </c>
       <c r="R15" s="12" t="n">
-        <f aca="false">ROUND((C15*0+D15*3+E15*10-F15*3+G15*2+H15*4+I15*5-J15*3-K15*4-L15*2+M15*2) / 38)</f>
+        <f aca="false">ROUND((C15*0+D15*3+E15*10-F15*3+G15*2+H15*4+I15*5-J15*3-K15*4-L15*2+M15*2) / 38,0)</f>
         <v>4</v>
       </c>
       <c r="S15" s="12" t="n">
-        <f aca="false">ROUND((-C15*3-D15*5+E15*3+F15*1+G15*4+H15*2+I15*10-J15*3+K15*6+L15*8+M15*0) / 45)</f>
+        <f aca="false">ROUND((-C15*3-D15*5+E15*3+F15*1+G15*4+H15*2+I15*10-J15*3+K15*6+L15*8+M15*0) / 45,0)</f>
         <v>2</v>
       </c>
       <c r="T15" s="12" t="n">
-        <f aca="false">ROUND((C15*5+D15*5-E15*3+F15*7-G15*2+H15*7-I15*3+J15*5+K15*8+L15*8+M15*1) / 54)</f>
+        <f aca="false">ROUND((C15*5+D15*5-E15*3+F15*7-G15*2+H15*7-I15*3+J15*5+K15*8+L15*8+M15*1) / 54,0)</f>
         <v>-2</v>
       </c>
       <c r="U15" s="12" t="n">
-        <f aca="false">ROUND((-C15*4-D15*2+E15*5+F15*5+G15*2+H15*2-I15*1+J15*7+K15*1+L15*2+M15*10) / 41)</f>
+        <f aca="false">ROUND((-C15*4-D15*2+E15*5+F15*5+G15*2+H15*2-I15*1+J15*7+K15*1+L15*2+M15*10) / 41,0)</f>
         <v>-1</v>
       </c>
       <c r="V15" s="12" t="n">
-        <f aca="false">ROUND((C15*2+D15*4+E15*9+F15*3-G15*3+H15*10-I15*3+J15*3+K15*8+L15*5+M15*0) / 50)</f>
+        <f aca="false">ROUND((C15*2+D15*4+E15*9+F15*3-G15*3+H15*10-I15*3+J15*3+K15*8+L15*5+M15*0) / 50,0)</f>
         <v>-1</v>
       </c>
       <c r="W15" s="12" t="n">
-        <f aca="false">ROUND((3*C15-1*D15-10*E15+3*F15-6*G15+6*H15-7*I15+2*J15+1*K15+8*L15-2*M15)/50)</f>
+        <f aca="false">ROUND((3*C15-1*D15-10*E15+3*F15-6*G15+6*H15-7*I15+2*J15+1*K15+8*L15-2*M15)/50,0)</f>
         <v>-3</v>
       </c>
-      <c r="X15" s="13" t="n">
-        <f aca="false">ROUND((-C15*3+D15*2+E15*2-F15*5+G15*10+H15*3+I15*6-J15*8-K15*3+L15*5+M15*3) / 50)</f>
+      <c r="X15" s="12" t="n">
+        <f aca="false">ROUND((-C15*3+D15*2+E15*2-F15*5+G15*10+H15*3+I15*6-J15*8-K15*3+L15*5+M15*3) / 50,0)</f>
         <v>6</v>
       </c>
-      <c r="Y15" s="14" t="n">
-        <f aca="false">SUM(P15:X15)</f>
-        <v>2</v>
-      </c>
-      <c r="AA15" s="0" t="n">
+      <c r="Y15" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <f aca="false">SUM(P15:Y15)</f>
+        <v>2</v>
+      </c>
+      <c r="AB15" s="0" t="n">
         <f aca="false">0.5*C15+0.5*D15</f>
         <v>1</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <f aca="false">0.4*E15+0.1*G15+0.3*I15+0.2*M15</f>
         <v>3.3</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <f aca="false">0.3*F15+0.2*J15+0.2*K15+0.3*L15</f>
         <v>-4</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <f aca="false">1*H15</f>
         <v>1</v>
-      </c>
-      <c r="AF15" s="0" t="n">
-        <f aca="false">ROUND(AA15/10, 2)</f>
-        <v>0.1</v>
       </c>
       <c r="AG15" s="0" t="n">
         <f aca="false">ROUND(AB15/10, 2)</f>
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">ROUND(AC15/10, 2)</f>
-        <v>-0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AI15" s="0" t="n">
         <f aca="false">ROUND(AD15/10, 2)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <f aca="false">ROUND(AE15/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ15" s="0" t="n">
-        <f aca="false">AF15+AG15+AH15+AI15</f>
+      <c r="AK15" s="0" t="n">
+        <f aca="false">AG15+AH15+AI15+AJ15</f>
         <v>0.13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3895,83 +3940,87 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="11" t="n">
-        <f aca="false">ROUND((C16*5+D16*10+E16*2+F16*4-G16*7+H16*4-I16*4+J16*3+K16*10+L16*5+M16*0) / 54)</f>
+        <f aca="false">ROUND((C16*5+D16*10+E16*2+F16*4-G16*7+H16*4-I16*4+J16*3+K16*10+L16*5+M16*0) / 54,0)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="12" t="n">
-        <f aca="false">ROUND((C16*8+D16*10+E16*2-F16*4-G16*5+H16*2-I16*3+J16*5+K16*5+L16*2+M16*2) / 48)</f>
+        <f aca="false">ROUND((C16*8+D16*10+E16*2-F16*4-G16*5+H16*2-I16*3+J16*5+K16*5+L16*2+M16*2) / 48,0)</f>
         <v>1</v>
       </c>
       <c r="R16" s="12" t="n">
-        <f aca="false">ROUND((C16*0+D16*3+E16*10-F16*3+G16*2+H16*4+I16*5-J16*3-K16*4-L16*2+M16*2) / 38)</f>
+        <f aca="false">ROUND((C16*0+D16*3+E16*10-F16*3+G16*2+H16*4+I16*5-J16*3-K16*4-L16*2+M16*2) / 38,0)</f>
         <v>-1</v>
       </c>
       <c r="S16" s="12" t="n">
-        <f aca="false">ROUND((-C16*3-D16*5+E16*3+F16*1+G16*4+H16*2+I16*10-J16*3+K16*6+L16*8+M16*0) / 45)</f>
+        <f aca="false">ROUND((-C16*3-D16*5+E16*3+F16*1+G16*4+H16*2+I16*10-J16*3+K16*6+L16*8+M16*0) / 45,0)</f>
         <v>1</v>
       </c>
       <c r="T16" s="12" t="n">
-        <f aca="false">ROUND((C16*5+D16*5-E16*3+F16*7-G16*2+H16*7-I16*3+J16*5+K16*8+L16*8+M16*1) / 54)</f>
+        <f aca="false">ROUND((C16*5+D16*5-E16*3+F16*7-G16*2+H16*7-I16*3+J16*5+K16*8+L16*8+M16*1) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="U16" s="12" t="n">
-        <f aca="false">ROUND((-C16*4-D16*2+E16*5+F16*5+G16*2+H16*2-I16*1+J16*7+K16*1+L16*2+M16*10) / 41)</f>
+        <f aca="false">ROUND((-C16*4-D16*2+E16*5+F16*5+G16*2+H16*2-I16*1+J16*7+K16*1+L16*2+M16*10) / 41,0)</f>
         <v>4</v>
       </c>
       <c r="V16" s="12" t="n">
-        <f aca="false">ROUND((C16*2+D16*4+E16*9+F16*3-G16*3+H16*10-I16*3+J16*3+K16*8+L16*5+M16*0) / 50)</f>
+        <f aca="false">ROUND((C16*2+D16*4+E16*9+F16*3-G16*3+H16*10-I16*3+J16*3+K16*8+L16*5+M16*0) / 50,0)</f>
         <v>1</v>
       </c>
       <c r="W16" s="12" t="n">
-        <f aca="false">ROUND((3*C16-1*D16-10*E16+3*F16-6*G16+6*H16-7*I16+2*J16+1*K16+8*L16-2*M16)/50)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="13" t="n">
-        <f aca="false">ROUND((-C16*3+D16*2+E16*2-F16*5+G16*10+H16*3+I16*6-J16*8-K16*3+L16*5+M16*3) / 50)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="14" t="n">
-        <f aca="false">SUM(P16:X16)</f>
+        <f aca="false">ROUND((3*C16-1*D16-10*E16+3*F16-6*G16+6*H16-7*I16+2*J16+1*K16+8*L16-2*M16)/50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="12" t="n">
+        <f aca="false">ROUND((-C16*3+D16*2+E16*2-F16*5+G16*10+H16*3+I16*6-J16*8-K16*3+L16*5+M16*3) / 50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <f aca="false">SUM(P16:Y16)</f>
         <v>7</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <f aca="false">0.5*C16+0.5*D16</f>
         <v>-4</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <f aca="false">0.4*E16+0.1*G16+0.3*I16+0.2*M16</f>
         <v>2.6</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <f aca="false">0.3*F16+0.2*J16+0.2*K16+0.3*L16</f>
         <v>3</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <f aca="false">1*H16</f>
         <v>-3</v>
       </c>
-      <c r="AF16" s="0" t="n">
-        <f aca="false">ROUND(AA16/10, 2)</f>
-        <v>-0.4</v>
-      </c>
       <c r="AG16" s="0" t="n">
         <f aca="false">ROUND(AB16/10, 2)</f>
-        <v>0.26</v>
+        <v>-0.4</v>
       </c>
       <c r="AH16" s="0" t="n">
         <f aca="false">ROUND(AC16/10, 2)</f>
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AI16" s="0" t="n">
         <f aca="false">ROUND(AD16/10, 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <f aca="false">ROUND(AE16/10, 2)</f>
         <v>-0.3</v>
       </c>
-      <c r="AJ16" s="0" t="n">
-        <f aca="false">AF16+AG16+AH16+AI16</f>
+      <c r="AK16" s="0" t="n">
+        <f aca="false">AG16+AH16+AI16+AJ16</f>
         <v>-0.14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -4014,83 +4063,87 @@
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="11" t="n">
-        <f aca="false">ROUND((C17*5+D17*10+E17*2+F17*4-G17*7+H17*4-I17*4+J17*3+K17*10+L17*5+M17*0) / 54)</f>
+        <f aca="false">ROUND((C17*5+D17*10+E17*2+F17*4-G17*7+H17*4-I17*4+J17*3+K17*10+L17*5+M17*0) / 54,0)</f>
         <v>4</v>
       </c>
       <c r="Q17" s="12" t="n">
-        <f aca="false">ROUND((C17*8+D17*10+E17*2-F17*4-G17*5+H17*2-I17*3+J17*5+K17*5+L17*2+M17*2) / 48)</f>
+        <f aca="false">ROUND((C17*8+D17*10+E17*2-F17*4-G17*5+H17*2-I17*3+J17*5+K17*5+L17*2+M17*2) / 48,0)</f>
         <v>3</v>
       </c>
       <c r="R17" s="12" t="n">
-        <f aca="false">ROUND((C17*0+D17*3+E17*10-F17*3+G17*2+H17*4+I17*5-J17*3-K17*4-L17*2+M17*2) / 38)</f>
+        <f aca="false">ROUND((C17*0+D17*3+E17*10-F17*3+G17*2+H17*4+I17*5-J17*3-K17*4-L17*2+M17*2) / 38,0)</f>
         <v>-0</v>
       </c>
       <c r="S17" s="12" t="n">
-        <f aca="false">ROUND((-C17*3-D17*5+E17*3+F17*1+G17*4+H17*2+I17*10-J17*3+K17*6+L17*8+M17*0) / 45)</f>
+        <f aca="false">ROUND((-C17*3-D17*5+E17*3+F17*1+G17*4+H17*2+I17*10-J17*3+K17*6+L17*8+M17*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T17" s="12" t="n">
-        <f aca="false">ROUND((C17*5+D17*5-E17*3+F17*7-G17*2+H17*7-I17*3+J17*5+K17*8+L17*8+M17*1) / 54)</f>
+        <f aca="false">ROUND((C17*5+D17*5-E17*3+F17*7-G17*2+H17*7-I17*3+J17*5+K17*8+L17*8+M17*1) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="U17" s="12" t="n">
-        <f aca="false">ROUND((-C17*4-D17*2+E17*5+F17*5+G17*2+H17*2-I17*1+J17*7+K17*1+L17*2+M17*10) / 41)</f>
+        <f aca="false">ROUND((-C17*4-D17*2+E17*5+F17*5+G17*2+H17*2-I17*1+J17*7+K17*1+L17*2+M17*10) / 41,0)</f>
         <v>2</v>
       </c>
       <c r="V17" s="12" t="n">
-        <f aca="false">ROUND((C17*2+D17*4+E17*9+F17*3-G17*3+H17*10-I17*3+J17*3+K17*8+L17*5+M17*0) / 50)</f>
+        <f aca="false">ROUND((C17*2+D17*4+E17*9+F17*3-G17*3+H17*10-I17*3+J17*3+K17*8+L17*5+M17*0) / 50,0)</f>
         <v>3</v>
       </c>
       <c r="W17" s="12" t="n">
-        <f aca="false">ROUND((3*C17-1*D17-10*E17+3*F17-6*G17+6*H17-7*I17+2*J17+1*K17+8*L17-2*M17)/50)</f>
-        <v>1</v>
-      </c>
-      <c r="X17" s="13" t="n">
-        <f aca="false">ROUND((-C17*3+D17*2+E17*2-F17*5+G17*10+H17*3+I17*6-J17*8-K17*3+L17*5+M17*3) / 50)</f>
-        <v>-2</v>
-      </c>
-      <c r="Y17" s="14" t="n">
-        <f aca="false">SUM(P17:X17)</f>
+        <f aca="false">ROUND((3*C17-1*D17-10*E17+3*F17-6*G17+6*H17-7*I17+2*J17+1*K17+8*L17-2*M17)/50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X17" s="12" t="n">
+        <f aca="false">ROUND((-C17*3+D17*2+E17*2-F17*5+G17*10+H17*3+I17*6-J17*8-K17*3+L17*5+M17*3) / 50,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="Y17" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <f aca="false">SUM(P17:Y17)</f>
         <v>13</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <f aca="false">0.5*C17+0.5*D17</f>
         <v>3.5</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <f aca="false">0.4*E17+0.1*G17+0.3*I17+0.2*M17</f>
         <v>0.3</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <f aca="false">0.3*F17+0.2*J17+0.2*K17+0.3*L17</f>
         <v>2.8</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <f aca="false">1*H17</f>
         <v>2</v>
-      </c>
-      <c r="AF17" s="0" t="n">
-        <f aca="false">ROUND(AA17/10, 2)</f>
-        <v>0.35</v>
       </c>
       <c r="AG17" s="0" t="n">
         <f aca="false">ROUND(AB17/10, 2)</f>
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">ROUND(AC17/10, 2)</f>
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AI17" s="0" t="n">
         <f aca="false">ROUND(AD17/10, 2)</f>
+        <v>0.28</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <f aca="false">ROUND(AE17/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AJ17" s="0" t="n">
-        <f aca="false">AF17+AG17+AH17+AI17</f>
+      <c r="AK17" s="0" t="n">
+        <f aca="false">AG17+AH17+AI17+AJ17</f>
         <v>0.86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -4133,83 +4186,87 @@
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="11" t="n">
-        <f aca="false">ROUND((C18*5+D18*10+E18*2+F18*4-G18*7+H18*4-I18*4+J18*3+K18*10+L18*5+M18*0) / 54)</f>
+        <f aca="false">ROUND((C18*5+D18*10+E18*2+F18*4-G18*7+H18*4-I18*4+J18*3+K18*10+L18*5+M18*0) / 54,0)</f>
         <v>-1</v>
       </c>
       <c r="Q18" s="12" t="n">
-        <f aca="false">ROUND((C18*8+D18*10+E18*2-F18*4-G18*5+H18*2-I18*3+J18*5+K18*5+L18*2+M18*2) / 48)</f>
+        <f aca="false">ROUND((C18*8+D18*10+E18*2-F18*4-G18*5+H18*2-I18*3+J18*5+K18*5+L18*2+M18*2) / 48,0)</f>
         <v>-1</v>
       </c>
       <c r="R18" s="12" t="n">
-        <f aca="false">ROUND((C18*0+D18*3+E18*10-F18*3+G18*2+H18*4+I18*5-J18*3-K18*4-L18*2+M18*2) / 38)</f>
+        <f aca="false">ROUND((C18*0+D18*3+E18*10-F18*3+G18*2+H18*4+I18*5-J18*3-K18*4-L18*2+M18*2) / 38,0)</f>
         <v>3</v>
       </c>
       <c r="S18" s="12" t="n">
-        <f aca="false">ROUND((-C18*3-D18*5+E18*3+F18*1+G18*4+H18*2+I18*10-J18*3+K18*6+L18*8+M18*0) / 45)</f>
+        <f aca="false">ROUND((-C18*3-D18*5+E18*3+F18*1+G18*4+H18*2+I18*10-J18*3+K18*6+L18*8+M18*0) / 45,0)</f>
         <v>1</v>
       </c>
       <c r="T18" s="12" t="n">
-        <f aca="false">ROUND((C18*5+D18*5-E18*3+F18*7-G18*2+H18*7-I18*3+J18*5+K18*8+L18*8+M18*1) / 54)</f>
+        <f aca="false">ROUND((C18*5+D18*5-E18*3+F18*7-G18*2+H18*7-I18*3+J18*5+K18*8+L18*8+M18*1) / 54,0)</f>
         <v>-2</v>
       </c>
       <c r="U18" s="12" t="n">
-        <f aca="false">ROUND((-C18*4-D18*2+E18*5+F18*5+G18*2+H18*2-I18*1+J18*7+K18*1+L18*2+M18*10) / 41)</f>
+        <f aca="false">ROUND((-C18*4-D18*2+E18*5+F18*5+G18*2+H18*2-I18*1+J18*7+K18*1+L18*2+M18*10) / 41,0)</f>
         <v>0</v>
       </c>
       <c r="V18" s="12" t="n">
-        <f aca="false">ROUND((C18*2+D18*4+E18*9+F18*3-G18*3+H18*10-I18*3+J18*3+K18*8+L18*5+M18*0) / 50)</f>
+        <f aca="false">ROUND((C18*2+D18*4+E18*9+F18*3-G18*3+H18*10-I18*3+J18*3+K18*8+L18*5+M18*0) / 50,0)</f>
         <v>-0</v>
       </c>
       <c r="W18" s="12" t="n">
-        <f aca="false">ROUND((3*C18-1*D18-10*E18+3*F18-6*G18+6*H18-7*I18+2*J18+1*K18+8*L18-2*M18)/50)</f>
+        <f aca="false">ROUND((3*C18-1*D18-10*E18+3*F18-6*G18+6*H18-7*I18+2*J18+1*K18+8*L18-2*M18)/50,0)</f>
         <v>-4</v>
       </c>
-      <c r="X18" s="13" t="n">
-        <f aca="false">ROUND((-C18*3+D18*2+E18*2-F18*5+G18*10+H18*3+I18*6-J18*8-K18*3+L18*5+M18*3) / 50)</f>
-        <v>1</v>
-      </c>
-      <c r="Y18" s="14" t="n">
-        <f aca="false">SUM(P18:X18)</f>
+      <c r="X18" s="12" t="n">
+        <f aca="false">ROUND((-C18*3+D18*2+E18*2-F18*5+G18*10+H18*3+I18*6-J18*8-K18*3+L18*5+M18*3) / 50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <f aca="false">SUM(P18:Y18)</f>
         <v>-3</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <f aca="false">0.5*C18+0.5*D18</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <f aca="false">0.4*E18+0.1*G18+0.3*I18+0.2*M18</f>
         <v>5.3</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <f aca="false">0.3*F18+0.2*J18+0.2*K18+0.3*L18</f>
         <v>-2</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <f aca="false">1*H18</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="0" t="n">
-        <f aca="false">ROUND(AA18/10, 2)</f>
         <v>0</v>
       </c>
       <c r="AG18" s="0" t="n">
         <f aca="false">ROUND(AB18/10, 2)</f>
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="0" t="n">
         <f aca="false">ROUND(AC18/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.53</v>
       </c>
       <c r="AI18" s="0" t="n">
         <f aca="false">ROUND(AD18/10, 2)</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AJ18" s="0" t="n">
-        <f aca="false">AF18+AG18+AH18+AI18</f>
+        <f aca="false">ROUND(AE18/10, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <f aca="false">AG18+AH18+AI18+AJ18</f>
         <v>0.33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -4252,83 +4309,87 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="11" t="n">
-        <f aca="false">ROUND((C19*5+D19*10+E19*2+F19*4-G19*7+H19*4-I19*4+J19*3+K19*10+L19*5+M19*0) / 54)</f>
+        <f aca="false">ROUND((C19*5+D19*10+E19*2+F19*4-G19*7+H19*4-I19*4+J19*3+K19*10+L19*5+M19*0) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="Q19" s="12" t="n">
-        <f aca="false">ROUND((C19*8+D19*10+E19*2-F19*4-G19*5+H19*2-I19*3+J19*5+K19*5+L19*2+M19*2) / 48)</f>
+        <f aca="false">ROUND((C19*8+D19*10+E19*2-F19*4-G19*5+H19*2-I19*3+J19*5+K19*5+L19*2+M19*2) / 48,0)</f>
         <v>3</v>
       </c>
       <c r="R19" s="12" t="n">
-        <f aca="false">ROUND((C19*0+D19*3+E19*10-F19*3+G19*2+H19*4+I19*5-J19*3-K19*4-L19*2+M19*2) / 38)</f>
+        <f aca="false">ROUND((C19*0+D19*3+E19*10-F19*3+G19*2+H19*4+I19*5-J19*3-K19*4-L19*2+M19*2) / 38,0)</f>
         <v>-1</v>
       </c>
       <c r="S19" s="12" t="n">
-        <f aca="false">ROUND((-C19*3-D19*5+E19*3+F19*1+G19*4+H19*2+I19*10-J19*3+K19*6+L19*8+M19*0) / 45)</f>
+        <f aca="false">ROUND((-C19*3-D19*5+E19*3+F19*1+G19*4+H19*2+I19*10-J19*3+K19*6+L19*8+M19*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T19" s="12" t="n">
-        <f aca="false">ROUND((C19*5+D19*5-E19*3+F19*7-G19*2+H19*7-I19*3+J19*5+K19*8+L19*8+M19*1) / 54)</f>
+        <f aca="false">ROUND((C19*5+D19*5-E19*3+F19*7-G19*2+H19*7-I19*3+J19*5+K19*8+L19*8+M19*1) / 54,0)</f>
         <v>2</v>
       </c>
       <c r="U19" s="12" t="n">
-        <f aca="false">ROUND((-C19*4-D19*2+E19*5+F19*5+G19*2+H19*2-I19*1+J19*7+K19*1+L19*2+M19*10) / 41)</f>
+        <f aca="false">ROUND((-C19*4-D19*2+E19*5+F19*5+G19*2+H19*2-I19*1+J19*7+K19*1+L19*2+M19*10) / 41,0)</f>
         <v>1</v>
       </c>
       <c r="V19" s="12" t="n">
-        <f aca="false">ROUND((C19*2+D19*4+E19*9+F19*3-G19*3+H19*10-I19*3+J19*3+K19*8+L19*5+M19*0) / 50)</f>
+        <f aca="false">ROUND((C19*2+D19*4+E19*9+F19*3-G19*3+H19*10-I19*3+J19*3+K19*8+L19*5+M19*0) / 50,0)</f>
         <v>2</v>
       </c>
       <c r="W19" s="12" t="n">
-        <f aca="false">ROUND((3*C19-1*D19-10*E19+3*F19-6*G19+6*H19-7*I19+2*J19+1*K19+8*L19-2*M19)/50)</f>
-        <v>1</v>
-      </c>
-      <c r="X19" s="13" t="n">
-        <f aca="false">ROUND((-C19*3+D19*2+E19*2-F19*5+G19*10+H19*3+I19*6-J19*8-K19*3+L19*5+M19*3) / 50)</f>
+        <f aca="false">ROUND((3*C19-1*D19-10*E19+3*F19-6*G19+6*H19-7*I19+2*J19+1*K19+8*L19-2*M19)/50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="12" t="n">
+        <f aca="false">ROUND((-C19*3+D19*2+E19*2-F19*5+G19*10+H19*3+I19*6-J19*8-K19*3+L19*5+M19*3) / 50,0)</f>
         <v>-4</v>
       </c>
-      <c r="Y19" s="14" t="n">
-        <f aca="false">SUM(P19:X19)</f>
+      <c r="Y19" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13" t="n">
+        <f aca="false">SUM(P19:Y19)</f>
         <v>6</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <f aca="false">0.5*C19+0.5*D19</f>
         <v>3</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <f aca="false">0.4*E19+0.1*G19+0.3*I19+0.2*M19</f>
         <v>-0.2</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <f aca="false">0.3*F19+0.2*J19+0.2*K19+0.3*L19</f>
         <v>2.9</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <f aca="false">1*H19</f>
         <v>1</v>
-      </c>
-      <c r="AF19" s="0" t="n">
-        <f aca="false">ROUND(AA19/10, 2)</f>
-        <v>0.3</v>
       </c>
       <c r="AG19" s="0" t="n">
         <f aca="false">ROUND(AB19/10, 2)</f>
-        <v>-0.02</v>
+        <v>0.3</v>
       </c>
       <c r="AH19" s="0" t="n">
         <f aca="false">ROUND(AC19/10, 2)</f>
-        <v>0.29</v>
+        <v>-0.02</v>
       </c>
       <c r="AI19" s="0" t="n">
         <f aca="false">ROUND(AD19/10, 2)</f>
+        <v>0.29</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <f aca="false">ROUND(AE19/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ19" s="0" t="n">
-        <f aca="false">AF19+AG19+AH19+AI19</f>
+      <c r="AK19" s="0" t="n">
+        <f aca="false">AG19+AH19+AI19+AJ19</f>
         <v>0.67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -4371,83 +4432,87 @@
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="11" t="n">
-        <f aca="false">ROUND((C20*5+D20*10+E20*2+F20*4-G20*7+H20*4-I20*4+J20*3+K20*10+L20*5+M20*0) / 54)</f>
+        <f aca="false">ROUND((C20*5+D20*10+E20*2+F20*4-G20*7+H20*4-I20*4+J20*3+K20*10+L20*5+M20*0) / 54,0)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="12" t="n">
-        <f aca="false">ROUND((C20*8+D20*10+E20*2-F20*4-G20*5+H20*2-I20*3+J20*5+K20*5+L20*2+M20*2) / 48)</f>
+        <f aca="false">ROUND((C20*8+D20*10+E20*2-F20*4-G20*5+H20*2-I20*3+J20*5+K20*5+L20*2+M20*2) / 48,0)</f>
         <v>0</v>
       </c>
       <c r="R20" s="12" t="n">
-        <f aca="false">ROUND((C20*0+D20*3+E20*10-F20*3+G20*2+H20*4+I20*5-J20*3-K20*4-L20*2+M20*2) / 38)</f>
+        <f aca="false">ROUND((C20*0+D20*3+E20*10-F20*3+G20*2+H20*4+I20*5-J20*3-K20*4-L20*2+M20*2) / 38,0)</f>
         <v>2</v>
       </c>
       <c r="S20" s="12" t="n">
-        <f aca="false">ROUND((-C20*3-D20*5+E20*3+F20*1+G20*4+H20*2+I20*10-J20*3+K20*6+L20*8+M20*0) / 45)</f>
+        <f aca="false">ROUND((-C20*3-D20*5+E20*3+F20*1+G20*4+H20*2+I20*10-J20*3+K20*6+L20*8+M20*0) / 45,0)</f>
         <v>4</v>
       </c>
       <c r="T20" s="12" t="n">
-        <f aca="false">ROUND((C20*5+D20*5-E20*3+F20*7-G20*2+H20*7-I20*3+J20*5+K20*8+L20*8+M20*1) / 54)</f>
+        <f aca="false">ROUND((C20*5+D20*5-E20*3+F20*7-G20*2+H20*7-I20*3+J20*5+K20*8+L20*8+M20*1) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="U20" s="12" t="n">
-        <f aca="false">ROUND((-C20*4-D20*2+E20*5+F20*5+G20*2+H20*2-I20*1+J20*7+K20*1+L20*2+M20*10) / 41)</f>
+        <f aca="false">ROUND((-C20*4-D20*2+E20*5+F20*5+G20*2+H20*2-I20*1+J20*7+K20*1+L20*2+M20*10) / 41,0)</f>
         <v>0</v>
       </c>
       <c r="V20" s="12" t="n">
-        <f aca="false">ROUND((C20*2+D20*4+E20*9+F20*3-G20*3+H20*10-I20*3+J20*3+K20*8+L20*5+M20*0) / 50)</f>
+        <f aca="false">ROUND((C20*2+D20*4+E20*9+F20*3-G20*3+H20*10-I20*3+J20*3+K20*8+L20*5+M20*0) / 50,0)</f>
         <v>1</v>
       </c>
       <c r="W20" s="12" t="n">
-        <f aca="false">ROUND((3*C20-1*D20-10*E20+3*F20-6*G20+6*H20-7*I20+2*J20+1*K20+8*L20-2*M20)/50)</f>
-        <v>-1</v>
-      </c>
-      <c r="X20" s="13" t="n">
-        <f aca="false">ROUND((-C20*3+D20*2+E20*2-F20*5+G20*10+H20*3+I20*6-J20*8-K20*3+L20*5+M20*3) / 50)</f>
-        <v>3</v>
-      </c>
-      <c r="Y20" s="14" t="n">
-        <f aca="false">SUM(P20:X20)</f>
+        <f aca="false">ROUND((3*C20-1*D20-10*E20+3*F20-6*G20+6*H20-7*I20+2*J20+1*K20+8*L20-2*M20)/50,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="X20" s="12" t="n">
+        <f aca="false">ROUND((-C20*3+D20*2+E20*2-F20*5+G20*10+H20*3+I20*6-J20*8-K20*3+L20*5+M20*3) / 50,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y20" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13" t="n">
+        <f aca="false">SUM(P20:Y20)</f>
         <v>10</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <f aca="false">0.5*C20+0.5*D20</f>
         <v>1.5</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <f aca="false">0.4*E20+0.1*G20+0.3*I20+0.2*M20</f>
         <v>4.8</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <f aca="false">0.3*F20+0.2*J20+0.2*K20+0.3*L20</f>
         <v>1.7</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <f aca="false">1*H20</f>
         <v>1</v>
-      </c>
-      <c r="AF20" s="0" t="n">
-        <f aca="false">ROUND(AA20/10, 2)</f>
-        <v>0.15</v>
       </c>
       <c r="AG20" s="0" t="n">
         <f aca="false">ROUND(AB20/10, 2)</f>
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="AH20" s="0" t="n">
         <f aca="false">ROUND(AC20/10, 2)</f>
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="AI20" s="0" t="n">
         <f aca="false">ROUND(AD20/10, 2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
+        <f aca="false">ROUND(AE20/10, 2)</f>
         <v>0.1</v>
       </c>
-      <c r="AJ20" s="0" t="n">
-        <f aca="false">AF20+AG20+AH20+AI20</f>
+      <c r="AK20" s="0" t="n">
+        <f aca="false">AG20+AH20+AI20+AJ20</f>
         <v>0.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -4490,83 +4555,87 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="11" t="n">
-        <f aca="false">ROUND((C21*5+D21*10+E21*2+F21*4-G21*7+H21*4-I21*4+J21*3+K21*10+L21*5+M21*0) / 54)</f>
+        <f aca="false">ROUND((C21*5+D21*10+E21*2+F21*4-G21*7+H21*4-I21*4+J21*3+K21*10+L21*5+M21*0) / 54,0)</f>
         <v>-2</v>
       </c>
       <c r="Q21" s="12" t="n">
-        <f aca="false">ROUND((C21*8+D21*10+E21*2-F21*4-G21*5+H21*2-I21*3+J21*5+K21*5+L21*2+M21*2) / 48)</f>
+        <f aca="false">ROUND((C21*8+D21*10+E21*2-F21*4-G21*5+H21*2-I21*3+J21*5+K21*5+L21*2+M21*2) / 48,0)</f>
         <v>-2</v>
       </c>
       <c r="R21" s="12" t="n">
-        <f aca="false">ROUND((C21*0+D21*3+E21*10-F21*3+G21*2+H21*4+I21*5-J21*3-K21*4-L21*2+M21*2) / 38)</f>
+        <f aca="false">ROUND((C21*0+D21*3+E21*10-F21*3+G21*2+H21*4+I21*5-J21*3-K21*4-L21*2+M21*2) / 38,0)</f>
         <v>1</v>
       </c>
       <c r="S21" s="12" t="n">
-        <f aca="false">ROUND((-C21*3-D21*5+E21*3+F21*1+G21*4+H21*2+I21*10-J21*3+K21*6+L21*8+M21*0) / 45)</f>
+        <f aca="false">ROUND((-C21*3-D21*5+E21*3+F21*1+G21*4+H21*2+I21*10-J21*3+K21*6+L21*8+M21*0) / 45,0)</f>
         <v>2</v>
       </c>
       <c r="T21" s="12" t="n">
-        <f aca="false">ROUND((C21*5+D21*5-E21*3+F21*7-G21*2+H21*7-I21*3+J21*5+K21*8+L21*8+M21*1) / 54)</f>
+        <f aca="false">ROUND((C21*5+D21*5-E21*3+F21*7-G21*2+H21*7-I21*3+J21*5+K21*8+L21*8+M21*1) / 54,0)</f>
         <v>-2</v>
       </c>
       <c r="U21" s="12" t="n">
-        <f aca="false">ROUND((-C21*4-D21*2+E21*5+F21*5+G21*2+H21*2-I21*1+J21*7+K21*1+L21*2+M21*10) / 41)</f>
+        <f aca="false">ROUND((-C21*4-D21*2+E21*5+F21*5+G21*2+H21*2-I21*1+J21*7+K21*1+L21*2+M21*10) / 41,0)</f>
         <v>-2</v>
       </c>
       <c r="V21" s="12" t="n">
-        <f aca="false">ROUND((C21*2+D21*4+E21*9+F21*3-G21*3+H21*10-I21*3+J21*3+K21*8+L21*5+M21*0) / 50)</f>
+        <f aca="false">ROUND((C21*2+D21*4+E21*9+F21*3-G21*3+H21*10-I21*3+J21*3+K21*8+L21*5+M21*0) / 50,0)</f>
         <v>-3</v>
       </c>
       <c r="W21" s="12" t="n">
-        <f aca="false">ROUND((3*C21-1*D21-10*E21+3*F21-6*G21+6*H21-7*I21+2*J21+1*K21+8*L21-2*M21)/50)</f>
-        <v>-1</v>
-      </c>
-      <c r="X21" s="13" t="n">
-        <f aca="false">ROUND((-C21*3+D21*2+E21*2-F21*5+G21*10+H21*3+I21*6-J21*8-K21*3+L21*5+M21*3) / 50)</f>
-        <v>3</v>
-      </c>
-      <c r="Y21" s="14" t="n">
-        <f aca="false">SUM(P21:X21)</f>
+        <f aca="false">ROUND((3*C21-1*D21-10*E21+3*F21-6*G21+6*H21-7*I21+2*J21+1*K21+8*L21-2*M21)/50,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="X21" s="12" t="n">
+        <f aca="false">ROUND((-C21*3+D21*2+E21*2-F21*5+G21*10+H21*3+I21*6-J21*8-K21*3+L21*5+M21*3) / 50,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y21" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13" t="n">
+        <f aca="false">SUM(P21:Y21)</f>
         <v>-6</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <f aca="false">0.5*C21+0.5*D21</f>
         <v>-1.5</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <f aca="false">0.4*E21+0.1*G21+0.3*I21+0.2*M21</f>
         <v>0.7</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <f aca="false">0.3*F21+0.2*J21+0.2*K21+0.3*L21</f>
         <v>-2</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <f aca="false">1*H21</f>
         <v>-3</v>
       </c>
-      <c r="AF21" s="0" t="n">
-        <f aca="false">ROUND(AA21/10, 2)</f>
-        <v>-0.15</v>
-      </c>
       <c r="AG21" s="0" t="n">
         <f aca="false">ROUND(AB21/10, 2)</f>
-        <v>0.07</v>
+        <v>-0.15</v>
       </c>
       <c r="AH21" s="0" t="n">
         <f aca="false">ROUND(AC21/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.07</v>
       </c>
       <c r="AI21" s="0" t="n">
         <f aca="false">ROUND(AD21/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
+        <f aca="false">ROUND(AE21/10, 2)</f>
         <v>-0.3</v>
       </c>
-      <c r="AJ21" s="0" t="n">
-        <f aca="false">AF21+AG21+AH21+AI21</f>
+      <c r="AK21" s="0" t="n">
+        <f aca="false">AG21+AH21+AI21+AJ21</f>
         <v>-0.58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -4609,83 +4678,87 @@
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="11" t="n">
-        <f aca="false">ROUND((C22*5+D22*10+E22*2+F22*4-G22*7+H22*4-I22*4+J22*3+K22*10+L22*5+M22*0) / 54)</f>
+        <f aca="false">ROUND((C22*5+D22*10+E22*2+F22*4-G22*7+H22*4-I22*4+J22*3+K22*10+L22*5+M22*0) / 54,0)</f>
         <v>-0</v>
       </c>
       <c r="Q22" s="12" t="n">
-        <f aca="false">ROUND((C22*8+D22*10+E22*2-F22*4-G22*5+H22*2-I22*3+J22*5+K22*5+L22*2+M22*2) / 48)</f>
+        <f aca="false">ROUND((C22*8+D22*10+E22*2-F22*4-G22*5+H22*2-I22*3+J22*5+K22*5+L22*2+M22*2) / 48,0)</f>
         <v>-3</v>
       </c>
       <c r="R22" s="12" t="n">
-        <f aca="false">ROUND((C22*0+D22*3+E22*10-F22*3+G22*2+H22*4+I22*5-J22*3-K22*4-L22*2+M22*2) / 38)</f>
+        <f aca="false">ROUND((C22*0+D22*3+E22*10-F22*3+G22*2+H22*4+I22*5-J22*3-K22*4-L22*2+M22*2) / 38,0)</f>
         <v>-1</v>
       </c>
       <c r="S22" s="12" t="n">
-        <f aca="false">ROUND((-C22*3-D22*5+E22*3+F22*1+G22*4+H22*2+I22*10-J22*3+K22*6+L22*8+M22*0) / 45)</f>
+        <f aca="false">ROUND((-C22*3-D22*5+E22*3+F22*1+G22*4+H22*2+I22*10-J22*3+K22*6+L22*8+M22*0) / 45,0)</f>
         <v>5</v>
       </c>
       <c r="T22" s="12" t="n">
-        <f aca="false">ROUND((C22*5+D22*5-E22*3+F22*7-G22*2+H22*7-I22*3+J22*5+K22*8+L22*8+M22*1) / 54)</f>
+        <f aca="false">ROUND((C22*5+D22*5-E22*3+F22*7-G22*2+H22*7-I22*3+J22*5+K22*8+L22*8+M22*1) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="U22" s="12" t="n">
-        <f aca="false">ROUND((-C22*4-D22*2+E22*5+F22*5+G22*2+H22*2-I22*1+J22*7+K22*1+L22*2+M22*10) / 41)</f>
+        <f aca="false">ROUND((-C22*4-D22*2+E22*5+F22*5+G22*2+H22*2-I22*1+J22*7+K22*1+L22*2+M22*10) / 41,0)</f>
         <v>-0</v>
       </c>
       <c r="V22" s="12" t="n">
-        <f aca="false">ROUND((C22*2+D22*4+E22*9+F22*3-G22*3+H22*10-I22*3+J22*3+K22*8+L22*5+M22*0) / 50)</f>
+        <f aca="false">ROUND((C22*2+D22*4+E22*9+F22*3-G22*3+H22*10-I22*3+J22*3+K22*8+L22*5+M22*0) / 50,0)</f>
         <v>-0</v>
       </c>
       <c r="W22" s="12" t="n">
-        <f aca="false">ROUND((3*C22-1*D22-10*E22+3*F22-6*G22+6*H22-7*I22+2*J22+1*K22+8*L22-2*M22)/50)</f>
-        <v>1</v>
-      </c>
-      <c r="X22" s="13" t="n">
-        <f aca="false">ROUND((-C22*3+D22*2+E22*2-F22*5+G22*10+H22*3+I22*6-J22*8-K22*3+L22*5+M22*3) / 50)</f>
-        <v>1</v>
-      </c>
-      <c r="Y22" s="14" t="n">
-        <f aca="false">SUM(P22:X22)</f>
+        <f aca="false">ROUND((3*C22-1*D22-10*E22+3*F22-6*G22+6*H22-7*I22+2*J22+1*K22+8*L22-2*M22)/50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="12" t="n">
+        <f aca="false">ROUND((-C22*3+D22*2+E22*2-F22*5+G22*10+H22*3+I22*6-J22*8-K22*3+L22*5+M22*3) / 50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13" t="n">
+        <f aca="false">SUM(P22:Y22)</f>
         <v>4</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <f aca="false">0.5*C22+0.5*D22</f>
         <v>-5.5</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <f aca="false">0.4*E22+0.1*G22+0.3*I22+0.2*M22</f>
         <v>0.300000000000001</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <f aca="false">0.3*F22+0.2*J22+0.2*K22+0.3*L22</f>
         <v>3.2</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <f aca="false">1*H22</f>
         <v>2</v>
-      </c>
-      <c r="AF22" s="0" t="n">
-        <f aca="false">ROUND(AA22/10, 2)</f>
-        <v>-0.55</v>
       </c>
       <c r="AG22" s="0" t="n">
         <f aca="false">ROUND(AB22/10, 2)</f>
-        <v>0.03</v>
+        <v>-0.55</v>
       </c>
       <c r="AH22" s="0" t="n">
         <f aca="false">ROUND(AC22/10, 2)</f>
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AI22" s="0" t="n">
         <f aca="false">ROUND(AD22/10, 2)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <f aca="false">ROUND(AE22/10, 2)</f>
         <v>0.2</v>
       </c>
-      <c r="AJ22" s="0" t="n">
-        <f aca="false">AF22+AG22+AH22+AI22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="AK22" s="0" t="n">
+        <f aca="false">AG22+AH22+AI22+AJ22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
@@ -4728,83 +4801,87 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="11" t="n">
-        <f aca="false">ROUND((C23*5+D23*10+E23*2+F23*4-G23*7+H23*4-I23*4+J23*3+K23*10+L23*5+M23*0) / 54)</f>
+        <f aca="false">ROUND((C23*5+D23*10+E23*2+F23*4-G23*7+H23*4-I23*4+J23*3+K23*10+L23*5+M23*0) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="Q23" s="12" t="n">
-        <f aca="false">ROUND((C23*8+D23*10+E23*2-F23*4-G23*5+H23*2-I23*3+J23*5+K23*5+L23*2+M23*2) / 48)</f>
+        <f aca="false">ROUND((C23*8+D23*10+E23*2-F23*4-G23*5+H23*2-I23*3+J23*5+K23*5+L23*2+M23*2) / 48,0)</f>
         <v>1</v>
       </c>
       <c r="R23" s="12" t="n">
-        <f aca="false">ROUND((C23*0+D23*3+E23*10-F23*3+G23*2+H23*4+I23*5-J23*3-K23*4-L23*2+M23*2) / 38)</f>
+        <f aca="false">ROUND((C23*0+D23*3+E23*10-F23*3+G23*2+H23*4+I23*5-J23*3-K23*4-L23*2+M23*2) / 38,0)</f>
         <v>-2</v>
       </c>
       <c r="S23" s="12" t="n">
-        <f aca="false">ROUND((-C23*3-D23*5+E23*3+F23*1+G23*4+H23*2+I23*10-J23*3+K23*6+L23*8+M23*0) / 45)</f>
+        <f aca="false">ROUND((-C23*3-D23*5+E23*3+F23*1+G23*4+H23*2+I23*10-J23*3+K23*6+L23*8+M23*0) / 45,0)</f>
         <v>1</v>
       </c>
       <c r="T23" s="12" t="n">
-        <f aca="false">ROUND((C23*5+D23*5-E23*3+F23*7-G23*2+H23*7-I23*3+J23*5+K23*8+L23*8+M23*1) / 54)</f>
+        <f aca="false">ROUND((C23*5+D23*5-E23*3+F23*7-G23*2+H23*7-I23*3+J23*5+K23*8+L23*8+M23*1) / 54,0)</f>
         <v>4</v>
       </c>
       <c r="U23" s="12" t="n">
-        <f aca="false">ROUND((-C23*4-D23*2+E23*5+F23*5+G23*2+H23*2-I23*1+J23*7+K23*1+L23*2+M23*10) / 41)</f>
+        <f aca="false">ROUND((-C23*4-D23*2+E23*5+F23*5+G23*2+H23*2-I23*1+J23*7+K23*1+L23*2+M23*10) / 41,0)</f>
         <v>1</v>
       </c>
       <c r="V23" s="12" t="n">
-        <f aca="false">ROUND((C23*2+D23*4+E23*9+F23*3-G23*3+H23*10-I23*3+J23*3+K23*8+L23*5+M23*0) / 50)</f>
+        <f aca="false">ROUND((C23*2+D23*4+E23*9+F23*3-G23*3+H23*10-I23*3+J23*3+K23*8+L23*5+M23*0) / 50,0)</f>
         <v>3</v>
       </c>
       <c r="W23" s="12" t="n">
-        <f aca="false">ROUND((3*C23-1*D23-10*E23+3*F23-6*G23+6*H23-7*I23+2*J23+1*K23+8*L23-2*M23)/50)</f>
+        <f aca="false">ROUND((3*C23-1*D23-10*E23+3*F23-6*G23+6*H23-7*I23+2*J23+1*K23+8*L23-2*M23)/50,0)</f>
         <v>4</v>
       </c>
-      <c r="X23" s="13" t="n">
-        <f aca="false">ROUND((-C23*3+D23*2+E23*2-F23*5+G23*10+H23*3+I23*6-J23*8-K23*3+L23*5+M23*3) / 50)</f>
-        <v>-2</v>
-      </c>
-      <c r="Y23" s="14" t="n">
-        <f aca="false">SUM(P23:X23)</f>
+      <c r="X23" s="12" t="n">
+        <f aca="false">ROUND((-C23*3+D23*2+E23*2-F23*5+G23*10+H23*3+I23*6-J23*8-K23*3+L23*5+M23*3) / 50,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="Y23" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13" t="n">
+        <f aca="false">SUM(P23:Y23)</f>
         <v>13</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <f aca="false">0.5*C23+0.5*D23</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <f aca="false">0.4*E23+0.1*G23+0.3*I23+0.2*M23</f>
         <v>-2</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <f aca="false">0.3*F23+0.2*J23+0.2*K23+0.3*L23</f>
         <v>6.6</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <f aca="false">1*H23</f>
         <v>3</v>
-      </c>
-      <c r="AF23" s="0" t="n">
-        <f aca="false">ROUND(AA23/10, 2)</f>
-        <v>0</v>
       </c>
       <c r="AG23" s="0" t="n">
         <f aca="false">ROUND(AB23/10, 2)</f>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="0" t="n">
         <f aca="false">ROUND(AC23/10, 2)</f>
-        <v>0.66</v>
+        <v>-0.2</v>
       </c>
       <c r="AI23" s="0" t="n">
         <f aca="false">ROUND(AD23/10, 2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
+        <f aca="false">ROUND(AE23/10, 2)</f>
         <v>0.3</v>
       </c>
-      <c r="AJ23" s="0" t="n">
-        <f aca="false">AF23+AG23+AH23+AI23</f>
+      <c r="AK23" s="0" t="n">
+        <f aca="false">AG23+AH23+AI23+AJ23</f>
         <v>0.76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -4847,83 +4924,87 @@
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="11" t="n">
-        <f aca="false">ROUND((C24*5+D24*10+E24*2+F24*4-G24*7+H24*4-I24*4+J24*3+K24*10+L24*5+M24*0) / 54)</f>
+        <f aca="false">ROUND((C24*5+D24*10+E24*2+F24*4-G24*7+H24*4-I24*4+J24*3+K24*10+L24*5+M24*0) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="Q24" s="12" t="n">
-        <f aca="false">ROUND((C24*8+D24*10+E24*2-F24*4-G24*5+H24*2-I24*3+J24*5+K24*5+L24*2+M24*2) / 48)</f>
+        <f aca="false">ROUND((C24*8+D24*10+E24*2-F24*4-G24*5+H24*2-I24*3+J24*5+K24*5+L24*2+M24*2) / 48,0)</f>
         <v>2</v>
       </c>
       <c r="R24" s="12" t="n">
-        <f aca="false">ROUND((C24*0+D24*3+E24*10-F24*3+G24*2+H24*4+I24*5-J24*3-K24*4-L24*2+M24*2) / 38)</f>
+        <f aca="false">ROUND((C24*0+D24*3+E24*10-F24*3+G24*2+H24*4+I24*5-J24*3-K24*4-L24*2+M24*2) / 38,0)</f>
         <v>0</v>
       </c>
       <c r="S24" s="12" t="n">
-        <f aca="false">ROUND((-C24*3-D24*5+E24*3+F24*1+G24*4+H24*2+I24*10-J24*3+K24*6+L24*8+M24*0) / 45)</f>
+        <f aca="false">ROUND((-C24*3-D24*5+E24*3+F24*1+G24*4+H24*2+I24*10-J24*3+K24*6+L24*8+M24*0) / 45,0)</f>
         <v>-0</v>
       </c>
       <c r="T24" s="12" t="n">
-        <f aca="false">ROUND((C24*5+D24*5-E24*3+F24*7-G24*2+H24*7-I24*3+J24*5+K24*8+L24*8+M24*1) / 54)</f>
+        <f aca="false">ROUND((C24*5+D24*5-E24*3+F24*7-G24*2+H24*7-I24*3+J24*5+K24*8+L24*8+M24*1) / 54,0)</f>
         <v>3</v>
       </c>
       <c r="U24" s="12" t="n">
-        <f aca="false">ROUND((-C24*4-D24*2+E24*5+F24*5+G24*2+H24*2-I24*1+J24*7+K24*1+L24*2+M24*10) / 41)</f>
+        <f aca="false">ROUND((-C24*4-D24*2+E24*5+F24*5+G24*2+H24*2-I24*1+J24*7+K24*1+L24*2+M24*10) / 41,0)</f>
         <v>0</v>
       </c>
       <c r="V24" s="12" t="n">
-        <f aca="false">ROUND((C24*2+D24*4+E24*9+F24*3-G24*3+H24*10-I24*3+J24*3+K24*8+L24*5+M24*0) / 50)</f>
+        <f aca="false">ROUND((C24*2+D24*4+E24*9+F24*3-G24*3+H24*10-I24*3+J24*3+K24*8+L24*5+M24*0) / 50,0)</f>
         <v>3</v>
       </c>
       <c r="W24" s="12" t="n">
-        <f aca="false">ROUND((3*C24-1*D24-10*E24+3*F24-6*G24+6*H24-7*I24+2*J24+1*K24+8*L24-2*M24)/50)</f>
-        <v>1</v>
-      </c>
-      <c r="X24" s="13" t="n">
-        <f aca="false">ROUND((-C24*3+D24*2+E24*2-F24*5+G24*10+H24*3+I24*6-J24*8-K24*3+L24*5+M24*3) / 50)</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="14" t="n">
-        <f aca="false">SUM(P24:X24)</f>
+        <f aca="false">ROUND((3*C24-1*D24-10*E24+3*F24-6*G24+6*H24-7*I24+2*J24+1*K24+8*L24-2*M24)/50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="12" t="n">
+        <f aca="false">ROUND((-C24*3+D24*2+E24*2-F24*5+G24*10+H24*3+I24*6-J24*8-K24*3+L24*5+M24*3) / 50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13" t="n">
+        <f aca="false">SUM(P24:Y24)</f>
         <v>12</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <f aca="false">0.5*C24+0.5*D24</f>
         <v>4</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <f aca="false">0.4*E24+0.1*G24+0.3*I24+0.2*M24</f>
         <v>-0.8</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <f aca="false">0.3*F24+0.2*J24+0.2*K24+0.3*L24</f>
         <v>2</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <f aca="false">1*H24</f>
         <v>7</v>
       </c>
-      <c r="AF24" s="0" t="n">
-        <f aca="false">ROUND(AA24/10, 2)</f>
-        <v>0.4</v>
-      </c>
       <c r="AG24" s="0" t="n">
         <f aca="false">ROUND(AB24/10, 2)</f>
-        <v>-0.08</v>
+        <v>0.4</v>
       </c>
       <c r="AH24" s="0" t="n">
         <f aca="false">ROUND(AC24/10, 2)</f>
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
       <c r="AI24" s="0" t="n">
         <f aca="false">ROUND(AD24/10, 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
+        <f aca="false">ROUND(AE24/10, 2)</f>
         <v>0.7</v>
       </c>
-      <c r="AJ24" s="0" t="n">
-        <f aca="false">AF24+AG24+AH24+AI24</f>
+      <c r="AK24" s="0" t="n">
+        <f aca="false">AG24+AH24+AI24+AJ24</f>
         <v>1.22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -4966,83 +5047,87 @@
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="11" t="n">
-        <f aca="false">ROUND((C25*5+D25*10+E25*2+F25*4-G25*7+H25*4-I25*4+J25*3+K25*10+L25*5+M25*0) / 54)</f>
+        <f aca="false">ROUND((C25*5+D25*10+E25*2+F25*4-G25*7+H25*4-I25*4+J25*3+K25*10+L25*5+M25*0) / 54,0)</f>
         <v>2</v>
       </c>
       <c r="Q25" s="12" t="n">
-        <f aca="false">ROUND((C25*8+D25*10+E25*2-F25*4-G25*5+H25*2-I25*3+J25*5+K25*5+L25*2+M25*2) / 48)</f>
+        <f aca="false">ROUND((C25*8+D25*10+E25*2-F25*4-G25*5+H25*2-I25*3+J25*5+K25*5+L25*2+M25*2) / 48,0)</f>
         <v>2</v>
       </c>
       <c r="R25" s="12" t="n">
-        <f aca="false">ROUND((C25*0+D25*3+E25*10-F25*3+G25*2+H25*4+I25*5-J25*3-K25*4-L25*2+M25*2) / 38)</f>
+        <f aca="false">ROUND((C25*0+D25*3+E25*10-F25*3+G25*2+H25*4+I25*5-J25*3-K25*4-L25*2+M25*2) / 38,0)</f>
         <v>2</v>
       </c>
       <c r="S25" s="12" t="n">
-        <f aca="false">ROUND((-C25*3-D25*5+E25*3+F25*1+G25*4+H25*2+I25*10-J25*3+K25*6+L25*8+M25*0) / 45)</f>
+        <f aca="false">ROUND((-C25*3-D25*5+E25*3+F25*1+G25*4+H25*2+I25*10-J25*3+K25*6+L25*8+M25*0) / 45,0)</f>
         <v>-1</v>
       </c>
       <c r="T25" s="12" t="n">
-        <f aca="false">ROUND((C25*5+D25*5-E25*3+F25*7-G25*2+H25*7-I25*3+J25*5+K25*8+L25*8+M25*1) / 54)</f>
+        <f aca="false">ROUND((C25*5+D25*5-E25*3+F25*7-G25*2+H25*7-I25*3+J25*5+K25*8+L25*8+M25*1) / 54,0)</f>
         <v>1</v>
       </c>
       <c r="U25" s="12" t="n">
-        <f aca="false">ROUND((-C25*4-D25*2+E25*5+F25*5+G25*2+H25*2-I25*1+J25*7+K25*1+L25*2+M25*10) / 41)</f>
+        <f aca="false">ROUND((-C25*4-D25*2+E25*5+F25*5+G25*2+H25*2-I25*1+J25*7+K25*1+L25*2+M25*10) / 41,0)</f>
         <v>-2</v>
       </c>
       <c r="V25" s="12" t="n">
-        <f aca="false">ROUND((C25*2+D25*4+E25*9+F25*3-G25*3+H25*10-I25*3+J25*3+K25*8+L25*5+M25*0) / 50)</f>
+        <f aca="false">ROUND((C25*2+D25*4+E25*9+F25*3-G25*3+H25*10-I25*3+J25*3+K25*8+L25*5+M25*0) / 50,0)</f>
         <v>2</v>
       </c>
       <c r="W25" s="12" t="n">
-        <f aca="false">ROUND((3*C25-1*D25-10*E25+3*F25-6*G25+6*H25-7*I25+2*J25+1*K25+8*L25-2*M25)/50)</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="13" t="n">
-        <f aca="false">ROUND((-C25*3+D25*2+E25*2-F25*5+G25*10+H25*3+I25*6-J25*8-K25*3+L25*5+M25*3) / 50)</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="14" t="n">
-        <f aca="false">SUM(P25:X25)</f>
+        <f aca="false">ROUND((3*C25-1*D25-10*E25+3*F25-6*G25+6*H25-7*I25+2*J25+1*K25+8*L25-2*M25)/50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="12" t="n">
+        <f aca="false">ROUND((-C25*3+D25*2+E25*2-F25*5+G25*10+H25*3+I25*6-J25*8-K25*3+L25*5+M25*3) / 50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="13" t="n">
+        <f aca="false">SUM(P25:Y25)</f>
         <v>6</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <f aca="false">0.5*C25+0.5*D25</f>
         <v>6</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <f aca="false">0.4*E25+0.1*G25+0.3*I25+0.2*M25</f>
         <v>0.4</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <f aca="false">0.3*F25+0.2*J25+0.2*K25+0.3*L25</f>
         <v>-2</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <f aca="false">1*H25</f>
         <v>7</v>
       </c>
-      <c r="AF25" s="0" t="n">
-        <f aca="false">ROUND(AA25/10, 2)</f>
-        <v>0.6</v>
-      </c>
       <c r="AG25" s="0" t="n">
         <f aca="false">ROUND(AB25/10, 2)</f>
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="AH25" s="0" t="n">
         <f aca="false">ROUND(AC25/10, 2)</f>
-        <v>-0.2</v>
+        <v>0.04</v>
       </c>
       <c r="AI25" s="0" t="n">
         <f aca="false">ROUND(AD25/10, 2)</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AJ25" s="0" t="n">
+        <f aca="false">ROUND(AE25/10, 2)</f>
         <v>0.7</v>
       </c>
-      <c r="AJ25" s="0" t="n">
-        <f aca="false">AF25+AG25+AH25+AI25</f>
+      <c r="AK25" s="0" t="n">
+        <f aca="false">AG25+AH25+AI25+AJ25</f>
         <v>1.14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P26" s="1" t="n">
         <f aca="false">SUM(P4:P25)</f>
         <v>31</v>
@@ -5079,8 +5164,12 @@
         <f aca="false">SUM(X4:X25)</f>
         <v>2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="Y26" s="12" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5131,8 +5220,12 @@
         <f aca="false">MAX(X4:X25)</f>
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="Y27" s="10" t="n">
+        <f aca="false">MAX(Y4:Y25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P28" s="0" t="n">
         <f aca="false">MIN(P4:P25)</f>
         <v>-2</v>
@@ -5169,11 +5262,15 @@
         <f aca="false">MIN(X4:X25)</f>
         <v>-4</v>
       </c>
+      <c r="Y28" s="0" t="n">
+        <f aca="false">MIN(Y4:Y25)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Профы" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>nature</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>FREEDOM</t>
+  </si>
+  <si>
+    <t>STABILITY</t>
   </si>
   <si>
     <t>TRADE_CENTER</t>
@@ -331,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,10 +364,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,7 +474,7 @@
   </sheetPr>
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1219,7 +1218,7 @@
       <c r="G20" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="4" t="n">
         <f aca="false">((((C20*0.4)+(D20*0.4))+(E20*0.4))+(F20*0.4))+(G20*1.1)</f>
         <v>0.75</v>
       </c>
@@ -1541,28 +1540,28 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="n">
+      <c r="C3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="9" t="n">
+      <c r="G3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="n">
         <v>-3</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="9" t="n">
         <f aca="false">SUM(C3:I3)</f>
         <v>3</v>
       </c>
@@ -1571,28 +1570,28 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="n">
+      <c r="C4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="n">
+      <c r="G4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="9" t="n">
         <f aca="false">SUM(C4:I4)</f>
         <v>2</v>
       </c>
@@ -1601,28 +1600,28 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="n">
+      <c r="C5" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9" t="n">
+      <c r="G5" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="9" t="n">
         <f aca="false">SUM(C5:I5)</f>
         <v>3</v>
       </c>
@@ -1631,28 +1630,28 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="n">
+      <c r="C6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9" t="n">
+      <c r="G6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="9" t="n">
         <f aca="false">SUM(C6:I6)</f>
         <v>3</v>
       </c>
@@ -1661,28 +1660,28 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9" t="n">
+      <c r="C7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="9" t="n">
+      <c r="G7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="9" t="n">
         <f aca="false">SUM(C7:I7)</f>
         <v>6</v>
       </c>
@@ -1691,28 +1690,28 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="D8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="n">
+      <c r="D8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="F8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <f aca="false">SUM(C8:I8)</f>
         <v>13</v>
       </c>
@@ -1721,28 +1720,28 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="F9" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="9" t="n">
+      <c r="F9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="9" t="n">
         <f aca="false">SUM(C9:I9)</f>
         <v>15</v>
       </c>
@@ -1751,28 +1750,28 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9" t="n">
+      <c r="C10" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="n">
         <v>-4</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="F10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="9" t="n">
+      <c r="F10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="9" t="n">
         <f aca="false">SUM(C10:I10)</f>
         <v>9</v>
       </c>
@@ -1781,28 +1780,28 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="n">
+      <c r="C11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="E11" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9" t="n">
+      <c r="E11" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="n">
         <v>-5</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="I11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10" t="n">
+      <c r="I11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="n">
         <f aca="false">SUM(C11:I11)</f>
         <v>0</v>
       </c>
@@ -1811,28 +1810,28 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="n">
+      <c r="C12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="9" t="n">
+      <c r="G12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="9" t="n">
         <f aca="false">SUM(C12:I12)</f>
         <v>2</v>
       </c>
@@ -1841,28 +1840,28 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="n">
+      <c r="C13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9" t="n">
+      <c r="G13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="n">
         <v>-3</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="9" t="n">
         <f aca="false">SUM(C13:I13)</f>
         <v>0</v>
       </c>
@@ -1871,28 +1870,28 @@
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="E14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9" t="n">
+      <c r="E14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="H14" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="9" t="n">
+      <c r="H14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="9" t="n">
         <f aca="false">SUM(C14:I14)</f>
         <v>-3</v>
       </c>
@@ -1901,28 +1900,28 @@
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="E15" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="9" t="n">
+      <c r="E15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="n">
+      <c r="I15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
         <f aca="false">SUM(C15:I15)</f>
         <v>5</v>
       </c>
@@ -1931,28 +1930,28 @@
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="n">
+      <c r="C16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="n">
+      <c r="G16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="9" t="n">
         <f aca="false">SUM(C16:I16)</f>
         <v>7</v>
       </c>
@@ -1961,28 +1960,28 @@
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="8" t="n">
         <v>-3</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="8" t="n">
         <v>-3</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="9" t="n">
+      <c r="F17" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="8" t="n">
         <v>-4</v>
       </c>
-      <c r="I17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="n">
+      <c r="I17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
         <f aca="false">SUM(C17:I17)</f>
         <v>-5</v>
       </c>
@@ -1991,28 +1990,28 @@
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10" t="n">
+      <c r="C18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="n">
         <f aca="false">SUM(C18:I18)</f>
         <v>12</v>
       </c>
@@ -2021,28 +2020,28 @@
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="D19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9" t="n">
+      <c r="D19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="H19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="10" t="n">
+      <c r="H19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="9" t="n">
         <f aca="false">SUM(C19:I19)</f>
         <v>6</v>
       </c>
@@ -2051,28 +2050,28 @@
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="8" t="n">
         <v>-3</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9" t="n">
+      <c r="E20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <v>-4</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="9" t="n">
         <f aca="false">SUM(C20:I20)</f>
         <v>-8</v>
       </c>
@@ -2081,28 +2080,28 @@
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="n">
+      <c r="C21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="n">
         <v>-4</v>
       </c>
-      <c r="E21" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9" t="n">
+      <c r="E21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="H21" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="9" t="n">
+      <c r="H21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="9" t="n">
         <f aca="false">SUM(C21:I21)</f>
         <v>2</v>
       </c>
@@ -2111,28 +2110,28 @@
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="9" t="n">
+      <c r="C22" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="E22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="10" t="n">
+      <c r="E22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9" t="n">
         <f aca="false">SUM(C22:I22)</f>
         <v>10</v>
       </c>
@@ -2162,7 +2161,7 @@
       <c r="I23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="9" t="n">
         <f aca="false">SUM(C23:I23)</f>
         <v>9</v>
       </c>
@@ -2192,7 +2191,7 @@
       <c r="I24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="9" t="n">
         <f aca="false">SUM(C24:I24)</f>
         <v>3</v>
       </c>
@@ -2232,31 +2231,31 @@
         <f aca="false">SUM(C25:I25)</f>
         <v>94</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="10" t="n">
         <f aca="false">C25/94</f>
         <v>0.202127659574468</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="10" t="n">
         <f aca="false">D25/94</f>
         <v>-0.0106382978723404</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E26" s="10" t="n">
         <f aca="false">E25/94</f>
         <v>0.25531914893617</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="10" t="n">
         <f aca="false">F25/94</f>
         <v>0.191489361702128</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="10" t="n">
         <f aca="false">G25/94</f>
         <v>0.180851063829787</v>
       </c>
-      <c r="H26" s="11" t="n">
+      <c r="H26" s="10" t="n">
         <f aca="false">H25/94</f>
         <v>0.0957446808510638</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="I26" s="10" t="n">
         <f aca="false">I25/94</f>
         <v>0.0851063829787234</v>
       </c>
@@ -2277,12 +2276,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AE43"/>
+  <dimension ref="B1:AF44"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="V33" activeCellId="0" sqref="V33"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="V40" activeCellId="0" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2308,20 +2309,21 @@
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.30612244897959"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9132653061225"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.29081632653061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.8622448979592"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="8.75"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="11.3928571428571"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="17.1326530612245"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.1428571428571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.29081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.3877551020408"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.1071428571429"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="7.08163265306122"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="19.8622448979592"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.36224489795918"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="11.3928571428571"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="10.1428571428571"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="17.1326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2384,26 +2386,26 @@
       <c r="U2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>61</v>
       </c>
       <c r="X2" s="0" t="s">
         <v>62</v>
       </c>
       <c r="Y2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="AA2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="AD2" s="0" t="s">
         <v>65</v>
@@ -2411,39 +2413,42 @@
       <c r="AE2" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="AF2" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="11" t="n">
         <v>5</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -2474,40 +2479,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.74</v>
       </c>
-      <c r="W3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.86</v>
+      <c r="V3" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.52</v>
       </c>
       <c r="X3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="Y3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.04</v>
+        <v>0.74</v>
       </c>
       <c r="Z3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>1</v>
+        <v>-0.04</v>
       </c>
       <c r="AA3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="AC3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="AD3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>0</v>
       </c>
     </row>
@@ -2560,7 +2569,7 @@
         <f aca="false">SUM(C4:M4)</f>
         <v>14</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.37</v>
@@ -2577,21 +2586,21 @@
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.22</v>
       </c>
-      <c r="W4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.36</v>
+      <c r="V4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.17</v>
       </c>
       <c r="X4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="Y4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.08</v>
+        <v>0.37</v>
       </c>
       <c r="Z4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.27</v>
+        <v>-0.08</v>
       </c>
       <c r="AA4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$39:$M$39)/($N$39*5)  , 2)</f>
@@ -2599,18 +2608,22 @@
       </c>
       <c r="AB4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.05</v>
+        <v>0.27</v>
       </c>
       <c r="AC4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.38</v>
+        <v>-0.05</v>
       </c>
       <c r="AD4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="AE4" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.07</v>
       </c>
     </row>
@@ -2663,7 +2676,7 @@
         <f aca="false">SUM(C5:M5)</f>
         <v>12</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.26</v>
@@ -2680,40 +2693,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.06</v>
       </c>
-      <c r="W5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.18</v>
+      <c r="V5" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.03</v>
       </c>
       <c r="X5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="Y5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.06</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.13</v>
+        <v>-0.06</v>
       </c>
       <c r="AA5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AC5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="AD5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="AE5" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.06</v>
       </c>
     </row>
@@ -2766,7 +2783,7 @@
         <f aca="false">SUM(C6:M6)</f>
         <v>12</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.3</v>
@@ -2783,40 +2800,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.17</v>
       </c>
-      <c r="W6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.24</v>
+      <c r="V6" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.09</v>
       </c>
       <c r="X6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="Y6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.11</v>
+        <v>0.3</v>
       </c>
       <c r="Z6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.2</v>
+        <v>-0.11</v>
       </c>
       <c r="AA6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AC6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.23</v>
+        <v>-0.02</v>
       </c>
       <c r="AD6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="AE6" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.09</v>
       </c>
     </row>
@@ -2869,7 +2890,7 @@
         <f aca="false">SUM(C7:M7)</f>
         <v>14</v>
       </c>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.35</v>
@@ -2886,40 +2907,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.16</v>
       </c>
-      <c r="W7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.3</v>
+      <c r="V7" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.08</v>
       </c>
       <c r="X7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="Y7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.14</v>
+        <v>0.37</v>
       </c>
       <c r="Z7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.21</v>
+        <v>-0.14</v>
       </c>
       <c r="AA7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.1</v>
+        <v>0.27</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE7" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.11</v>
       </c>
     </row>
@@ -2972,7 +2997,7 @@
         <f aca="false">SUM(C8:M8)</f>
         <v>10</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.21</v>
@@ -2989,40 +3014,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.17</v>
       </c>
-      <c r="W8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.21</v>
+      <c r="V8" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0</v>
       </c>
       <c r="X8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="Y8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.02</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.1</v>
+        <v>-0.02</v>
       </c>
       <c r="AA8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="AB8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AE8" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.11</v>
       </c>
     </row>
@@ -3075,7 +3104,7 @@
         <f aca="false">SUM(C9:M9)</f>
         <v>6</v>
       </c>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.22</v>
@@ -3092,40 +3121,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>-0.01</v>
       </c>
-      <c r="W9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.08</v>
+      <c r="V9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.48</v>
       </c>
       <c r="X9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="AA9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>-0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="AD9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>-0.41</v>
+        <v>0.25</v>
       </c>
       <c r="AE9" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>-0.41</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>0.36</v>
       </c>
     </row>
@@ -3178,7 +3211,7 @@
         <f aca="false">SUM(C10:M10)</f>
         <v>12</v>
       </c>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.17</v>
@@ -3195,40 +3228,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.24</v>
       </c>
-      <c r="W10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.31</v>
+      <c r="V10" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.21</v>
       </c>
       <c r="X10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="Y10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.37</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.14</v>
+        <v>-0.37</v>
       </c>
       <c r="AA10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="AD10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="AE10" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.3</v>
       </c>
     </row>
@@ -3281,7 +3318,7 @@
         <f aca="false">SUM(C11:M11)</f>
         <v>6</v>
       </c>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>-0.07</v>
@@ -3298,40 +3335,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.23</v>
       </c>
-      <c r="W11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.19</v>
+      <c r="V11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.39</v>
       </c>
       <c r="X11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="Y11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.45</v>
+        <v>0.02</v>
       </c>
       <c r="Z11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.1</v>
+        <v>-0.45</v>
       </c>
       <c r="AA11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="AB11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AD11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.48</v>
+        <v>0.03</v>
       </c>
       <c r="AE11" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.38</v>
       </c>
     </row>
@@ -3384,7 +3425,7 @@
         <f aca="false">SUM(C12:M12)</f>
         <v>-4</v>
       </c>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>-0.25</v>
@@ -3401,40 +3442,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>-0.07</v>
       </c>
-      <c r="W12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>-0.11</v>
+      <c r="V12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.34</v>
       </c>
       <c r="X12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>-0.22</v>
+        <v>-0.11</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.45</v>
+        <v>-0.22</v>
       </c>
       <c r="Z12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.14</v>
+        <v>-0.45</v>
       </c>
       <c r="AA12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>-0.07</v>
+        <v>-0.14</v>
       </c>
       <c r="AB12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.02</v>
+        <v>-0.07</v>
       </c>
       <c r="AC12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AD12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.31</v>
+        <v>-0.18</v>
       </c>
       <c r="AE12" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.29</v>
       </c>
     </row>
@@ -3487,7 +3532,7 @@
         <f aca="false">SUM(C13:M13)</f>
         <v>14</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.23</v>
@@ -3504,40 +3549,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.07</v>
       </c>
-      <c r="W13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.15</v>
+      <c r="V13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.05</v>
       </c>
       <c r="X13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.07</v>
+        <v>0.23</v>
       </c>
       <c r="Z13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.16</v>
+        <v>-0.07</v>
       </c>
       <c r="AA13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.12</v>
+        <v>0.19</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="AD13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="AE13" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.06</v>
       </c>
     </row>
@@ -3590,7 +3639,7 @@
         <f aca="false">SUM(C14:M14)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="13"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.16</v>
@@ -3607,40 +3656,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>-0.02</v>
       </c>
-      <c r="W14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.14</v>
+      <c r="V14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.03</v>
       </c>
       <c r="X14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="Y14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.11</v>
+        <v>0.16</v>
       </c>
       <c r="Z14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="AA14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.25</v>
+        <v>0.11</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.16</v>
+        <v>-0.25</v>
       </c>
       <c r="AD14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="AE14" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.09</v>
       </c>
     </row>
@@ -3693,7 +3746,7 @@
         <f aca="false">SUM(C15:M15)</f>
         <v>4</v>
       </c>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.2</v>
@@ -3710,40 +3763,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>-0.19</v>
       </c>
-      <c r="W15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>-0.02</v>
+      <c r="V15" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.47</v>
       </c>
       <c r="X15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.42</v>
+        <v>0.09</v>
       </c>
       <c r="Z15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="AA15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>-0.15</v>
+        <v>0.06</v>
       </c>
       <c r="AB15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.05</v>
+        <v>-0.15</v>
       </c>
       <c r="AC15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.25</v>
+        <v>-0.05</v>
       </c>
       <c r="AD15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>-0.43</v>
+        <v>0.25</v>
       </c>
       <c r="AE15" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>-0.43</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>0.48</v>
       </c>
     </row>
@@ -3796,7 +3853,7 @@
         <f aca="false">SUM(C16:M16)</f>
         <v>13</v>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.28</v>
@@ -3813,40 +3870,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.27</v>
       </c>
-      <c r="W16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.24</v>
+      <c r="V16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.12</v>
       </c>
       <c r="X16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="Y16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="Z16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="AA16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="AB16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="AD16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="AE16" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.04</v>
       </c>
     </row>
@@ -3899,7 +3960,7 @@
         <f aca="false">SUM(C17:M17)</f>
         <v>9</v>
       </c>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.22</v>
@@ -3916,40 +3977,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.25</v>
       </c>
-      <c r="W17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.34</v>
+      <c r="V17" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.23</v>
       </c>
       <c r="X17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="Y17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.4</v>
+        <v>0.31</v>
       </c>
       <c r="Z17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AA17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.03</v>
+        <v>0.32</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="AD17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="AE17" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.39</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.43</v>
       </c>
     </row>
@@ -4002,7 +4067,7 @@
         <f aca="false">SUM(C18:M18)</f>
         <v>8</v>
       </c>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.1</v>
@@ -4019,40 +4084,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.02</v>
       </c>
-      <c r="W18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.09</v>
+      <c r="V18" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.44</v>
       </c>
       <c r="X18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="Y18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="Z18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="AA18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>-0.01</v>
+        <v>0.22</v>
       </c>
       <c r="AB18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="AD18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>-0.37</v>
+        <v>0.26</v>
       </c>
       <c r="AE18" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>-0.37</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>0.32</v>
       </c>
     </row>
@@ -4105,7 +4174,7 @@
         <f aca="false">SUM(C19:M19)</f>
         <v>18</v>
       </c>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.3</v>
@@ -4122,29 +4191,29 @@
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.47</v>
       </c>
-      <c r="W19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.46</v>
+      <c r="V19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0</v>
       </c>
       <c r="X19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="Y19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.14</v>
+        <v>0.4</v>
       </c>
       <c r="Z19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.31</v>
+        <v>-0.14</v>
       </c>
       <c r="AA19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
       <c r="AB19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$41:$M$41)/($N$41*5)  , 2)</f>
@@ -4152,10 +4221,14 @@
       </c>
       <c r="AD19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AE19" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.26</v>
       </c>
     </row>
@@ -4208,7 +4281,7 @@
         <f aca="false">SUM(C20:M20)</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="13"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>-0.06</v>
@@ -4225,40 +4298,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>-0.02</v>
       </c>
-      <c r="W20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.03</v>
+      <c r="V20" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.06</v>
       </c>
       <c r="X20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="Y20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="Z20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.03</v>
+        <v>-0.16</v>
       </c>
       <c r="AA20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AB20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="AD20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="AE20" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.08</v>
       </c>
     </row>
@@ -4311,7 +4388,7 @@
         <f aca="false">SUM(C21:M21)</f>
         <v>16</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.34</v>
@@ -4328,40 +4405,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.17</v>
       </c>
-      <c r="W21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.25</v>
+      <c r="V21" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.27</v>
       </c>
       <c r="X21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="Y21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.07</v>
+        <v>0.3</v>
       </c>
       <c r="Z21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.36</v>
+        <v>0.07</v>
       </c>
       <c r="AA21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="AB21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.05</v>
+        <v>0.27</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="AD21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>-0.1</v>
+        <v>0.31</v>
       </c>
       <c r="AE21" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>0.11</v>
       </c>
     </row>
@@ -4414,7 +4495,7 @@
         <f aca="false">SUM(C22:M22)</f>
         <v>15</v>
       </c>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.3</v>
@@ -4431,40 +4512,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.41</v>
       </c>
-      <c r="W22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.48</v>
+      <c r="V22" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.08</v>
       </c>
       <c r="X22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="Y22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.28</v>
+        <v>0.42</v>
       </c>
       <c r="Z22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.26</v>
+        <v>-0.28</v>
       </c>
       <c r="AA22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="AB22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="AD22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AE22" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.34</v>
       </c>
     </row>
@@ -4517,7 +4602,7 @@
         <f aca="false">SUM(C23:M23)</f>
         <v>6</v>
       </c>
-      <c r="Q23" s="13"/>
+      <c r="Q23" s="12"/>
       <c r="R23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>-0.16</v>
@@ -4534,40 +4619,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.31</v>
       </c>
-      <c r="W23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.16</v>
+      <c r="V23" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>-0.39</v>
       </c>
       <c r="X23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>-0.06</v>
+        <v>0.16</v>
       </c>
       <c r="Y23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.38</v>
+        <v>-0.06</v>
       </c>
       <c r="Z23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.14</v>
+        <v>-0.38</v>
       </c>
       <c r="AA23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AB23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="AC23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.03</v>
+        <v>0.15</v>
       </c>
       <c r="AD23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.45</v>
+        <v>-0.03</v>
       </c>
       <c r="AE23" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.36</v>
       </c>
     </row>
@@ -4620,7 +4709,7 @@
         <f aca="false">SUM(C24:M24)</f>
         <v>18</v>
       </c>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="12"/>
       <c r="R24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.29</v>
@@ -4637,40 +4726,44 @@
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.3</v>
       </c>
-      <c r="W24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.4</v>
+      <c r="V24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.21</v>
       </c>
       <c r="X24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.02</v>
+        <v>0.3</v>
       </c>
       <c r="Z24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.34</v>
+        <v>-0.02</v>
       </c>
       <c r="AA24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AB24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="AC24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="AD24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="AE24" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>0.01</v>
       </c>
     </row>
@@ -4723,7 +4816,7 @@
         <f aca="false">SUM(C25:M25)</f>
         <v>13</v>
       </c>
-      <c r="Q25" s="13"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$30:$M$30)/($N$30*5)  , 2)</f>
         <v>0.26</v>
@@ -4740,100 +4833,104 @@
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$33:$M$33)/($N$33*5)  , 2)</f>
         <v>0.05</v>
       </c>
-      <c r="W25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$35:$M$35)/($N$35*5)  , 2)</f>
-        <v>0.26</v>
+      <c r="V25" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <v>0.06</v>
       </c>
       <c r="X25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="Y25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.12</v>
+        <v>0.25</v>
       </c>
       <c r="Z25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.19</v>
+        <v>-0.12</v>
       </c>
       <c r="AA25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AB25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AC25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="AD25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="AE25" s="0" t="n">
         <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$43:$M$43)/($N$43*5)  , 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$44:$M$44)/($N$44*5)  , 2)</f>
         <v>-0.05</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="12" t="n">
+      <c r="C26" s="11" t="n">
         <f aca="false">SUMIF(C4:C25,"&gt;0")-SUMIF(C4:C25,"&lt;0")</f>
         <v>37</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="11" t="n">
         <f aca="false">SUMIF(D4:D25,"&gt;0")-SUMIF(D4:D25,"&lt;0")</f>
         <v>47</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="11" t="n">
         <f aca="false">SUMIF(E4:E25,"&gt;0")-SUMIF(E4:E25,"&lt;0")</f>
         <v>36</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="11" t="n">
         <f aca="false">SUMIF(F4:F25,"&gt;0")-SUMIF(F4:F25,"&lt;0")</f>
         <v>38</v>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="11" t="n">
         <f aca="false">SUMIF(G4:G25,"&gt;0")-SUMIF(G4:G25,"&lt;0")</f>
         <v>45</v>
       </c>
-      <c r="H26" s="12" t="n">
+      <c r="H26" s="11" t="n">
         <f aca="false">SUMIF(H4:H25,"&gt;0")-SUMIF(H4:H25,"&lt;0")</f>
         <v>22</v>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" s="11" t="n">
         <f aca="false">SUMIF(I4:I25,"&gt;0")-SUMIF(I4:I25,"&lt;0")</f>
         <v>42</v>
       </c>
-      <c r="J26" s="12" t="n">
+      <c r="J26" s="11" t="n">
         <f aca="false">SUMIF(J4:J25,"&gt;0")-SUMIF(J4:J25,"&lt;0")</f>
         <v>39</v>
       </c>
-      <c r="K26" s="12" t="n">
+      <c r="K26" s="11" t="n">
         <f aca="false">SUMIF(K4:K25,"&gt;0")-SUMIF(K4:K25,"&lt;0")</f>
         <v>45</v>
       </c>
-      <c r="L26" s="12" t="n">
+      <c r="L26" s="11" t="n">
         <f aca="false">SUMIF(L4:L25,"&gt;0")-SUMIF(L4:L25,"&lt;0")</f>
         <v>39</v>
       </c>
-      <c r="M26" s="12" t="n">
+      <c r="M26" s="11" t="n">
         <f aca="false">SUMIF(M4:M25,"&gt;0")-SUMIF(M4:M25,"&lt;0")</f>
         <v>28</v>
       </c>
-      <c r="N26" s="12" t="n">
+      <c r="N26" s="11" t="n">
         <f aca="false">SUMIF(N4:N25,"&gt;0")-SUMIF(N4:N25,"&lt;0")</f>
         <v>418</v>
       </c>
-      <c r="O26" s="12" t="n">
+      <c r="O26" s="11" t="n">
         <f aca="false">SUMIF(O4:O25,"&gt;0")-SUMIF(O4:O25,"&lt;0")</f>
         <v>321</v>
       </c>
-      <c r="P26" s="12" t="n">
+      <c r="P26" s="11" t="n">
         <f aca="false">SUMIF(P4:P25,"&gt;0")-SUMIF(P4:P25,"&lt;0")</f>
         <v>232</v>
       </c>
@@ -4889,7 +4986,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="13"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
@@ -4941,21 +5038,21 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
@@ -5158,356 +5255,356 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O34" s="1"/>
+      <c r="B34" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">SUMIF(C34:M34,"&gt;0")-SUMIF(C34:M34,"&lt;0")</f>
+        <v>29</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <f aca="false">SUMIF(C34:M34,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">SUM(C34:M34)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <f aca="false">SUMIF(C35:M35,"&gt;0")-SUMIF(C35:M35,"&lt;0")</f>
-        <v>28</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <f aca="false">SUMIF(C35:M35,"&gt;0")</f>
-        <v>26</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <f aca="false">SUM(C35:M35)</f>
-        <v>24</v>
-      </c>
+      <c r="O35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="L36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="0" t="n">
         <f aca="false">SUMIF(C36:M36,"&gt;0")-SUMIF(C36:M36,"&lt;0")</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O36" s="1" t="n">
         <f aca="false">SUMIF(C36:M36,"&gt;0")</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P36" s="0" t="n">
         <f aca="false">SUM(C36:M36)</f>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" s="0" t="n">
         <f aca="false">SUMIF(C37:M37,"&gt;0")-SUMIF(C37:M37,"&lt;0")</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O37" s="1" t="n">
         <f aca="false">SUMIF(C37:M37,"&gt;0")</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">SUM(C37:M37)</f>
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" s="0" t="n">
         <f aca="false">SUMIF(C38:M38,"&gt;0")-SUMIF(C38:M38,"&lt;0")</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O38" s="1" t="n">
         <f aca="false">SUMIF(C38:M38,"&gt;0")</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P38" s="0" t="n">
         <f aca="false">SUM(C38:M38)</f>
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" s="0" t="n">
         <f aca="false">SUMIF(C39:M39,"&gt;0")-SUMIF(C39:M39,"&lt;0")</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O39" s="1" t="n">
         <f aca="false">SUMIF(C39:M39,"&gt;0")</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">SUM(C39:M39)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>-3</v>
-      </c>
       <c r="H40" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" s="0" t="n">
         <f aca="false">SUMIF(C40:M40,"&gt;0")-SUMIF(C40:M40,"&lt;0")</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O40" s="1" t="n">
         <f aca="false">SUMIF(C40:M40,"&gt;0")</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="P40" s="0" t="n">
         <f aca="false">SUM(C40:M40)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="H41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="N41" s="0" t="n">
         <f aca="false">SUMIF(C41:M41,"&gt;0")-SUMIF(C41:M41,"&lt;0")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O41" s="1" t="n">
         <f aca="false">SUMIF(C41:M41,"&gt;0")</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">SUM(C41:M41)</f>
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,43 +5618,43 @@
         <v>3</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="L42" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N42" s="0" t="n">
         <f aca="false">SUMIF(C42:M42,"&gt;0")-SUMIF(C42:M42,"&lt;0")</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O42" s="1" t="n">
         <f aca="false">SUMIF(C42:M42,"&gt;0")</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P42" s="0" t="n">
         <f aca="false">SUM(C42:M42)</f>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,48 +5662,98 @@
         <v>66</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="0" t="n">
         <v>-3</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>-4</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="H43" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>-2</v>
-      </c>
       <c r="M43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0" t="n">
         <f aca="false">SUMIF(C43:M43,"&gt;0")-SUMIF(C43:M43,"&lt;0")</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O43" s="1" t="n">
         <f aca="false">SUMIF(C43:M43,"&gt;0")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P43" s="0" t="n">
         <f aca="false">SUM(C43:M43)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">SUMIF(C44:M44,"&gt;0")-SUMIF(C44:M44,"&lt;0")</f>
+        <v>34</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <f aca="false">SUMIF(C44:M44,"&gt;0")</f>
+        <v>17</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">SUM(C44:M44)</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/Professions.xlsx
+++ b/docs/Professions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>nature</t>
   </si>
@@ -154,7 +154,7 @@
     <t>добыча</t>
   </si>
   <si>
-    <t>переработка</t>
+    <t>производство</t>
   </si>
   <si>
     <t>безопасность</t>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>HOLY_CITY</t>
+  </si>
+  <si>
+    <t>суть профессии</t>
+  </si>
+  <si>
+    <t>вспомогательная часть профессии</t>
+  </si>
+  <si>
+    <t>косвенно зависит от профессии</t>
+  </si>
+  <si>
+    <t>никак не относится к профессии</t>
   </si>
 </sst>
 </file>
@@ -2279,11 +2291,11 @@
   <dimension ref="B1:AF44"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V40" activeCellId="0" sqref="V40"/>
+      <selection pane="bottomRight" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2419,105 +2431,105 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" s="0" t="n">
         <f aca="false">SUMIF(C3:M3,"&gt;0")-SUMIF(C3:M3,"&lt;0")</f>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">SUMIF(C3:M3,"&gt;0")</f>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">SUM(C3:M3)</f>
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="R3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.76</v>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.73</v>
       </c>
       <c r="S3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$31:$M$31)/($N$31*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.68</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.33</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.89</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$37:$M$37)/($N$37*3)  , 2)</f>
         <v>0.6</v>
       </c>
-      <c r="T3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.74</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.86</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.74</v>
-      </c>
       <c r="Z3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.04</v>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>0.14</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$39:$M$39)/($N$39*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$39:$M$39)/($N$39*3)  , 2)</f>
         <v>1</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$40:$M$40)/($N$40*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$40:$M$40)/($N$40*3)  , 2)</f>
         <v>0.88</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.44</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>1</v>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.67</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.07</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>0</v>
+        <f aca="false">ROUND(SUMPRODUCT($C3:$M3, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,106 +2537,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">SUMIF(C4:M4,"&gt;0")-SUMIF(C4:M4,"&lt;0")</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">SUMIF(C4:M4,"&gt;0")</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">SUM(C4:M4)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.37</v>
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.38</v>
       </c>
       <c r="S4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.24</v>
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.21</v>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.41</v>
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.33</v>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.22</v>
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.14</v>
       </c>
       <c r="V4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.29</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.09</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$42:$M$42)/($N$42*3)  , 2)</f>
         <v>0.17</v>
       </c>
-      <c r="X4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.36</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.37</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.27</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.27</v>
-      </c>
-      <c r="AC4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.05</v>
-      </c>
-      <c r="AD4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.38</v>
-      </c>
       <c r="AE4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.1</v>
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.11</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.07</v>
+        <f aca="false">ROUND(SUMPRODUCT($C4:$M4, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,25 +2644,25 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>0</v>
@@ -2659,79 +2671,79 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">SUMIF(C5:M5,"&gt;0")-SUMIF(C5:M5,"&lt;0")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">SUMIF(C5:M5,"&gt;0")</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">SUM(C5:M5)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="S5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$31:$M$31)/($N$31*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$34:$M$34)/($N$34*3)  , 2)</f>
         <v>0.06</v>
       </c>
-      <c r="T5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$33:$M$33)/($N$33*5)  , 2)</f>
+      <c r="X5" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$36:$M$36)/($N$36*3)  , 2)</f>
         <v>0.06</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.18</v>
-      </c>
       <c r="Y5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.08</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.13</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.06</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.19</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.15</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.17</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.2</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>-0.03</v>
       </c>
       <c r="AE5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.09</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.02</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C5:$M5, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +2751,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -2751,94 +2763,94 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">SUMIF(C6:M6,"&gt;0")-SUMIF(C6:M6,"&lt;0")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">SUMIF(C6:M6,"&gt;0")</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">SUM(C6:M6)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.31</v>
       </c>
       <c r="S6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.11</v>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.05</v>
       </c>
       <c r="T6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.18</v>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$33:$M$33)/($N$33*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.07</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$36:$M$36)/($N$36*3)  , 2)</f>
         <v>0.17</v>
       </c>
-      <c r="V6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.24</v>
-      </c>
       <c r="Y6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.31</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$38:$M$38)/($N$38*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$41:$M$41)/($N$41*3)  , 2)</f>
         <v>-0.11</v>
       </c>
-      <c r="AA6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.24</v>
-      </c>
-      <c r="AC6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.02</v>
-      </c>
       <c r="AD6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.03</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.11</v>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.04</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.09</v>
+        <f aca="false">ROUND(SUMPRODUCT($C6:$M6, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,106 +2858,106 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">SUMIF(C7:M7,"&gt;0")-SUMIF(C7:M7,"&lt;0")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">SUMIF(C7:M7,"&gt;0")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">SUM(C7:M7)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.35</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.31</v>
       </c>
       <c r="S7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.12</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.15</v>
       </c>
       <c r="T7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$32:$M$32)/($N$32*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.28</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$37:$M$37)/($N$37*3)  , 2)</f>
         <v>0.31</v>
       </c>
-      <c r="U7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.37</v>
-      </c>
       <c r="Z7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.14</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.02</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.21</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.18</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$40:$M$40)/($N$40*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$40:$M$40)/($N$40*3)  , 2)</f>
         <v>0.27</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.1</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.11</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.14</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.15</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.11</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.11</v>
+        <f aca="false">ROUND(SUMPRODUCT($C7:$M7, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,22 +2968,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0</v>
@@ -2987,72 +2999,72 @@
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">SUMIF(C8:M8,"&gt;0")-SUMIF(C8:M8,"&lt;0")</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">SUMIF(C8:M8,"&gt;0")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">SUM(C8:M8)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.21</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="S8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.12</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.03</v>
       </c>
       <c r="T8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$32:$M$32)/($N$32*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.15</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$37:$M$37)/($N$37*3)  , 2)</f>
         <v>0.16</v>
       </c>
-      <c r="U8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.21</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.23</v>
-      </c>
       <c r="Z8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.02</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.14</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.1</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.18</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.18</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.31</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.09</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.19</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>-0.06</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.15</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.07</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.11</v>
+        <f aca="false">ROUND(SUMPRODUCT($C8:$M8, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,39 +3078,39 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">SUMIF(C9:M9,"&gt;0")-SUMIF(C9:M9,"&lt;0")</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O9" s="1" t="n">
         <f aca="false">SUMIF(C9:M9,"&gt;0")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">SUM(C9:M9)</f>
@@ -3106,60 +3118,60 @@
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$30:$M$30)/($N$30*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$30:$M$30)/($N$30*3)  , 2)</f>
         <v>0.22</v>
       </c>
       <c r="S9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$31:$M$31)/($N$31*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.56</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$38:$M$38)/($N$38*3)  , 2)</f>
         <v>0.49</v>
       </c>
-      <c r="T9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>-0.01</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.48</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.14</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.45</v>
-      </c>
       <c r="AA9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$39:$M$39)/($N$39*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$42:$M$42)/($N$42*3)  , 2)</f>
         <v>0.17</v>
       </c>
-      <c r="AB9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.02</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.25</v>
-      </c>
       <c r="AE9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>-0.41</v>
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.4</v>
       </c>
       <c r="AF9" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>0.36</v>
+        <f aca="false">ROUND(SUMPRODUCT($C9:$M9, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,106 +3179,106 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">SUMIF(C10:M10,"&gt;0")-SUMIF(C10:M10,"&lt;0")</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O10" s="1" t="n">
         <f aca="false">SUMIF(C10:M10,"&gt;0")</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">SUM(C10:M10)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.17</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.18</v>
       </c>
       <c r="S10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>-0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0</v>
       </c>
       <c r="T10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.29</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.44</v>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.24</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.37</v>
       </c>
       <c r="V10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.21</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.06</v>
       </c>
       <c r="X10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.37</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.37</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.16</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.14</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.33</v>
       </c>
       <c r="AB10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.47</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.04</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.09</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.22</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.42</v>
       </c>
       <c r="AE10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.43</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.16</v>
       </c>
       <c r="AF10" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C10:$M10, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,103 +3289,103 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>-1</v>
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">SUMIF(C11:M11,"&gt;0")-SUMIF(C11:M11,"&lt;0")</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O11" s="1" t="n">
         <f aca="false">SUMIF(C11:M11,"&gt;0")</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">SUM(C11:M11)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>-0.07</v>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>-0.09</v>
       </c>
       <c r="S11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>-0.33</v>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.28</v>
       </c>
       <c r="T11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.09</v>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.15</v>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.35</v>
       </c>
       <c r="V11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.39</v>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.37</v>
       </c>
       <c r="X11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$36:$M$36)/($N$36*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>-0.11</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$42:$M$42)/($N$42*3)  , 2)</f>
         <v>0.19</v>
       </c>
-      <c r="Y11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.45</v>
-      </c>
-      <c r="AA11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.27</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="AD11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.03</v>
-      </c>
       <c r="AE11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.48</v>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.44</v>
       </c>
       <c r="AF11" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.38</v>
+        <f aca="false">ROUND(SUMPRODUCT($C11:$M11, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,106 +3393,106 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">SUMIF(C12:M12,"&gt;0")-SUMIF(C12:M12,"&lt;0")</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O12" s="1" t="n">
         <f aca="false">SUMIF(C12:M12,"&gt;0")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">SUM(C12:M12)</f>
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>-0.25</v>
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>-0.49</v>
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.33</v>
       </c>
       <c r="T12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>-0.02</v>
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.21</v>
       </c>
       <c r="U12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$33:$M$33)/($N$33*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.28</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.32</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$41:$M$41)/($N$41*3)  , 2)</f>
         <v>-0.07</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.34</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>-0.11</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.22</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.45</v>
-      </c>
-      <c r="AA12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$39:$M$39)/($N$39*5)  , 2)</f>
+      <c r="AD12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$44:$M$44)/($N$44*3)  , 2)</f>
         <v>-0.14</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.07</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="AD12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>-0.18</v>
-      </c>
-      <c r="AE12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.31</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C12:$M12, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,25 +3500,25 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>0</v>
@@ -3515,79 +3527,79 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">SUMIF(C13:M13,"&gt;0")-SUMIF(C13:M13,"&lt;0")</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O13" s="1" t="n">
         <f aca="false">SUMIF(C13:M13,"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">SUM(C13:M13)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="S13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.05</v>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.03</v>
       </c>
       <c r="T13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.14</v>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.21</v>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.07</v>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.11</v>
       </c>
       <c r="V13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.05</v>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.02</v>
       </c>
       <c r="X13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$36:$M$36)/($N$36*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$36:$M$36)/($N$36*3)  , 2)</f>
         <v>0.15</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$38:$M$38)/($N$38*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.13</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.11</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$44:$M$44)/($N$44*3)  , 2)</f>
         <v>-0.07</v>
-      </c>
-      <c r="AA13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.19</v>
-      </c>
-      <c r="AC13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.12</v>
-      </c>
-      <c r="AD13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AE13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="AF13" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C13:$M13, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.06</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,106 +3607,106 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">SUMIF(C14:M14,"&gt;0")-SUMIF(C14:M14,"&lt;0")</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O14" s="1" t="n">
         <f aca="false">SUMIF(C14:M14,"&gt;0")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">SUM(C14:M14)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$30:$M$30)/($N$30*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.08</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$37:$M$37)/($N$37*3)  , 2)</f>
         <v>0.16</v>
       </c>
-      <c r="S14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.14</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$33:$M$33)/($N$33*5)  , 2)</f>
+      <c r="Z14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.14</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.28</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$43:$M$43)/($N$43*3)  , 2)</f>
         <v>-0.02</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.03</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.14</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.11</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.11</v>
-      </c>
-      <c r="AC14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.25</v>
-      </c>
-      <c r="AD14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.16</v>
-      </c>
-      <c r="AE14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.06</v>
-      </c>
       <c r="AF14" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.09</v>
+        <f aca="false">ROUND(SUMPRODUCT($C14:$M14, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,42 +3717,42 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>-3</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">SUMIF(C15:M15,"&gt;0")-SUMIF(C15:M15,"&lt;0")</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O15" s="1" t="n">
         <f aca="false">SUMIF(C15:M15,"&gt;0")</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">SUM(C15:M15)</f>
@@ -3748,60 +3760,60 @@
       </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.2</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.18</v>
       </c>
       <c r="S15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.14</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.28</v>
       </c>
       <c r="T15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.14</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.26</v>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>-0.19</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>-0.25</v>
       </c>
       <c r="V15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.47</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.44</v>
       </c>
       <c r="X15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$36:$M$36)/($N$36*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$40:$M$40)/($N$40*3)  , 2)</f>
         <v>-0.02</v>
       </c>
-      <c r="Y15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.42</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="AB15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.15</v>
-      </c>
       <c r="AC15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.05</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.06</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$42:$M$42)/($N$42*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$42:$M$42)/($N$42*3)  , 2)</f>
         <v>0.25</v>
       </c>
       <c r="AE15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>-0.43</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.58</v>
       </c>
       <c r="AF15" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>0.48</v>
+        <f aca="false">ROUND(SUMPRODUCT($C15:$M15, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>1</v>
@@ -3821,16 +3833,16 @@
         <v>-1</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>1</v>
@@ -3839,76 +3851,76 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">SUMIF(C16:M16,"&gt;0")-SUMIF(C16:M16,"&lt;0")</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O16" s="1" t="n">
         <f aca="false">SUMIF(C16:M16,"&gt;0")</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">SUM(C16:M16)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.28</v>
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.36</v>
       </c>
       <c r="S16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$31:$M$31)/($N$31*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$34:$M$34)/($N$34*3)  , 2)</f>
         <v>0.22</v>
       </c>
-      <c r="T16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$32:$M$32)/($N$32*5)  , 2)</f>
+      <c r="X16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$40:$M$40)/($N$40*3)  , 2)</f>
         <v>0.18</v>
       </c>
-      <c r="U16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.27</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.12</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.24</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.32</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.21</v>
-      </c>
-      <c r="AB16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.29</v>
-      </c>
       <c r="AC16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.25</v>
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.22</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.16</v>
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.08</v>
       </c>
       <c r="AE16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.09</v>
       </c>
       <c r="AF16" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.04</v>
+        <f aca="false">ROUND(SUMPRODUCT($C16:$M16, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,45 +3928,45 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">SUMIF(C17:M17,"&gt;0")-SUMIF(C17:M17,"&lt;0")</f>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O17" s="1" t="n">
         <f aca="false">SUMIF(C17:M17,"&gt;0")</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">SUM(C17:M17)</f>
@@ -3962,60 +3974,60 @@
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.22</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.4</v>
       </c>
       <c r="S17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>-0.08</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.03</v>
       </c>
       <c r="T17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.28</v>
       </c>
       <c r="U17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.25</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.3</v>
       </c>
       <c r="V17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.15</v>
       </c>
       <c r="X17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.34</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.28</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.4</v>
       </c>
       <c r="Z17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.4</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.27</v>
       </c>
       <c r="AA17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.1</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.21</v>
       </c>
       <c r="AB17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.32</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.39</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.03</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.06</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.17</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.11</v>
       </c>
       <c r="AE17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.39</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="AF17" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.43</v>
+        <f aca="false">ROUND(SUMPRODUCT($C17:$M17, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,100 +4041,100 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
         <v>-2</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>-3</v>
       </c>
       <c r="M18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">SUMIF(C18:M18,"&gt;0")-SUMIF(C18:M18,"&lt;0")</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O18" s="1" t="n">
         <f aca="false">SUMIF(C18:M18,"&gt;0")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">SUM(C18:M18)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.1</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.13</v>
       </c>
       <c r="S18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.35</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.33</v>
       </c>
       <c r="T18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.15</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.23</v>
       </c>
       <c r="U18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.02</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.07</v>
       </c>
       <c r="V18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.44</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.33</v>
       </c>
       <c r="X18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.09</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.03</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.04</v>
       </c>
       <c r="Z18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.36</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>0.29</v>
       </c>
       <c r="AA18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.22</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.06</v>
       </c>
       <c r="AB18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.01</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.08</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.19</v>
       </c>
       <c r="AE18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>-0.37</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.31</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>0.32</v>
+        <f aca="false">ROUND(SUMPRODUCT($C18:$M18, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,7 +4142,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>3</v>
@@ -4139,97 +4151,97 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="0" t="n">
         <f aca="false">SUMIF(C19:M19,"&gt;0")-SUMIF(C19:M19,"&lt;0")</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O19" s="1" t="n">
         <f aca="false">SUMIF(C19:M19,"&gt;0")</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">SUM(C19:M19)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.51</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.15</v>
       </c>
       <c r="T19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$32:$M$32)/($N$32*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$32:$M$32)/($N$32*3)  , 2)</f>
         <v>0.38</v>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$33:$M$33)/($N$33*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.13</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$40:$M$40)/($N$40*3)  , 2)</f>
         <v>0.47</v>
       </c>
-      <c r="V19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.14</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.31</v>
-      </c>
-      <c r="AB19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.47</v>
-      </c>
       <c r="AC19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.15</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.25</v>
       </c>
       <c r="AE19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.27</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C19:$M19, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,106 +4249,106 @@
         <v>26</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">SUMIF(C20:M20,"&gt;0")-SUMIF(C20:M20,"&lt;0")</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O20" s="1" t="n">
         <f aca="false">SUMIF(C20:M20,"&gt;0")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P20" s="0" t="n">
         <f aca="false">SUM(C20:M20)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="12"/>
       <c r="R20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>-0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.07</v>
       </c>
       <c r="S20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>-0.23</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.28</v>
       </c>
       <c r="T20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.09</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.13</v>
       </c>
       <c r="U20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>-0.02</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0</v>
       </c>
       <c r="V20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.17</v>
       </c>
       <c r="X20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.03</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.13</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.07</v>
       </c>
       <c r="Z20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.16</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.29</v>
       </c>
       <c r="AA20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>-0.03</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.06</v>
       </c>
       <c r="AB20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>-0.04</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.18</v>
       </c>
       <c r="AC20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.02</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.11</v>
       </c>
       <c r="AD20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.11</v>
       </c>
       <c r="AE20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.11</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.04</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.08</v>
+        <f aca="false">ROUND(SUMPRODUCT($C20:$M20, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,97 +4365,97 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">SUMIF(C21:M21,"&gt;0")-SUMIF(C21:M21,"&lt;0")</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O21" s="1" t="n">
         <f aca="false">SUMIF(C21:M21,"&gt;0")</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">SUM(C21:M21)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.34</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="S21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.23</v>
       </c>
       <c r="T21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$32:$M$32)/($N$32*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$32:$M$32)/($N$32*3)  , 2)</f>
         <v>0.33</v>
       </c>
       <c r="U21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.17</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.23</v>
       </c>
       <c r="V21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.27</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.11</v>
       </c>
       <c r="X21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.25</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.3</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="Z21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>0.07</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>0.05</v>
       </c>
       <c r="AA21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.36</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.33</v>
       </c>
       <c r="AB21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.27</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.29</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.05</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.15</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.22</v>
       </c>
       <c r="AE21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>-0.1</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.02</v>
       </c>
       <c r="AF21" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>0.11</v>
+        <f aca="false">ROUND(SUMPRODUCT($C21:$M21, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,31 +4463,31 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1" t="n">
         <v>1</v>
@@ -4485,72 +4497,72 @@
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">SUMIF(C22:M22,"&gt;0")-SUMIF(C22:M22,"&lt;0")</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O22" s="1" t="n">
         <f aca="false">SUMIF(C22:M22,"&gt;0")</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">SUM(C22:M22)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="12"/>
       <c r="R22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.47</v>
       </c>
       <c r="S22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$31:$M$31)/($N$31*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$31:$M$31)/($N$31*3)  , 2)</f>
         <v>0.1</v>
       </c>
       <c r="T22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.39</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.44</v>
       </c>
       <c r="U22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$33:$M$33)/($N$33*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.06</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$36:$M$36)/($N$36*3)  , 2)</f>
         <v>0.41</v>
       </c>
-      <c r="V22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.08</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.48</v>
-      </c>
       <c r="Y22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.42</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.49</v>
       </c>
       <c r="Z22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.28</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.14</v>
       </c>
       <c r="AA22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="AB22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.45</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.47</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.19</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.07</v>
       </c>
       <c r="AD22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.33</v>
       </c>
       <c r="AE22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.35</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="AF22" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.34</v>
+        <f aca="false">ROUND(SUMPRODUCT($C22:$M22, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,22 +4570,22 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>-3</v>
-      </c>
       <c r="H23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>-1</v>
@@ -4585,79 +4597,79 @@
         <v>2</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N23" s="0" t="n">
         <f aca="false">SUMIF(C23:M23,"&gt;0")-SUMIF(C23:M23,"&lt;0")</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O23" s="1" t="n">
         <f aca="false">SUMIF(C23:M23,"&gt;0")</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P23" s="0" t="n">
         <f aca="false">SUM(C23:M23)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>-0.16</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>-0.09</v>
       </c>
       <c r="S23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>-0.27</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.26</v>
       </c>
       <c r="T23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.01</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.1</v>
       </c>
       <c r="U23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.31</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.46</v>
       </c>
       <c r="V23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>-0.39</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.44</v>
       </c>
       <c r="X23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.16</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>-0.06</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>-0.07</v>
       </c>
       <c r="Z23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.38</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.44</v>
       </c>
       <c r="AA23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.14</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$39:$M$39)/($N$39*3)  , 2)</f>
+        <v>0.27</v>
       </c>
       <c r="AB23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.29</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.41</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.15</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>0.04</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>-0.03</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.28</v>
       </c>
       <c r="AE23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.45</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>0.6</v>
       </c>
       <c r="AF23" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.36</v>
+        <f aca="false">ROUND(SUMPRODUCT($C23:$M23, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,106 +4677,106 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
         <f aca="false">SUMIF(C24:M24,"&gt;0")-SUMIF(C24:M24,"&lt;0")</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O24" s="1" t="n">
         <f aca="false">SUMIF(C24:M24,"&gt;0")</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P24" s="0" t="n">
         <f aca="false">SUM(C24:M24)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$30:$M$30)/($N$30*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>0.07</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$37:$M$37)/($N$37*3)  , 2)</f>
         <v>0.29</v>
       </c>
-      <c r="S24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$31:$M$31)/($N$31*5)  , 2)</f>
+      <c r="Z24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.05</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$39:$M$39)/($N$39*3)  , 2)</f>
         <v>0.24</v>
       </c>
-      <c r="T24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.47</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="V24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$34:$M$34)/($N$34*5)  , 2)</f>
-        <v>0.21</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.4</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$38:$M$38)/($N$38*5)  , 2)</f>
+      <c r="AB24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.37</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.11</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$43:$M$43)/($N$43*3)  , 2)</f>
         <v>-0.02</v>
       </c>
-      <c r="AA24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.34</v>
-      </c>
-      <c r="AB24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.32</v>
-      </c>
-      <c r="AC24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>0.13</v>
-      </c>
-      <c r="AD24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.46</v>
-      </c>
-      <c r="AE24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.15</v>
-      </c>
       <c r="AF24" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>0.01</v>
+        <f aca="false">ROUND(SUMPRODUCT($C24:$M24, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,25 +4784,25 @@
         <v>31</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>0</v>
@@ -4799,79 +4811,79 @@
         <v>1</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N25" s="0" t="n">
         <f aca="false">SUMIF(C25:M25,"&gt;0")-SUMIF(C25:M25,"&lt;0")</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O25" s="1" t="n">
         <f aca="false">SUMIF(C25:M25,"&gt;0")</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">SUM(C25:M25)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$30:$M$30)/($N$30*5)  , 2)</f>
-        <v>0.26</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$30:$M$30)/($N$30*3)  , 2)</f>
+        <v>0.2</v>
       </c>
       <c r="S25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$31:$M$31)/($N$31*5)  , 2)</f>
-        <v>0.08</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$31:$M$31)/($N$31*3)  , 2)</f>
+        <v>-0.08</v>
       </c>
       <c r="T25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$32:$M$32)/($N$32*5)  , 2)</f>
-        <v>0.3</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$32:$M$32)/($N$32*3)  , 2)</f>
+        <v>0.18</v>
       </c>
       <c r="U25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$33:$M$33)/($N$33*5)  , 2)</f>
-        <v>0.05</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$33:$M$33)/($N$33*3)  , 2)</f>
+        <v>0.02</v>
       </c>
       <c r="V25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$34:$M$34)/($N$34*5)  , 2)</f>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$34:$M$34)/($N$34*3)  , 2)</f>
+        <v>-0.02</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$36:$M$36)/($N$36*3)  , 2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$37:$M$37)/($N$37*3)  , 2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$38:$M$38)/($N$38*3)  , 2)</f>
+        <v>-0.14</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$39:$M$39)/($N$39*3)  , 2)</f>
         <v>0.06</v>
       </c>
-      <c r="X25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$36:$M$36)/($N$36*5)  , 2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$37:$M$37)/($N$37*5)  , 2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="Z25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$38:$M$38)/($N$38*5)  , 2)</f>
-        <v>-0.12</v>
-      </c>
-      <c r="AA25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$39:$M$39)/($N$39*5)  , 2)</f>
-        <v>0.19</v>
-      </c>
       <c r="AB25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$40:$M$40)/($N$40*5)  , 2)</f>
-        <v>0.2</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$40:$M$40)/($N$40*3)  , 2)</f>
+        <v>0.24</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$41:$M$41)/($N$41*5)  , 2)</f>
-        <v>-0.25</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$41:$M$41)/($N$41*3)  , 2)</f>
+        <v>-0.28</v>
       </c>
       <c r="AD25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$42:$M$42)/($N$42*5)  , 2)</f>
-        <v>0.34</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$42:$M$42)/($N$42*3)  , 2)</f>
+        <v>-0.03</v>
       </c>
       <c r="AE25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$43:$M$43)/($N$43*5)  , 2)</f>
-        <v>0.13</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$43:$M$43)/($N$43*3)  , 2)</f>
+        <v>-0.02</v>
       </c>
       <c r="AF25" s="0" t="n">
-        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$44:$M$44)/($N$44*5)  , 2)</f>
-        <v>-0.05</v>
+        <f aca="false">ROUND(SUMPRODUCT($C25:$M25, $C$44:$M$44)/($N$44*3)  , 2)</f>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,59 +4892,59 @@
       </c>
       <c r="C26" s="11" t="n">
         <f aca="false">SUMIF(C4:C25,"&gt;0")-SUMIF(C4:C25,"&lt;0")</f>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D26" s="11" t="n">
         <f aca="false">SUMIF(D4:D25,"&gt;0")-SUMIF(D4:D25,"&lt;0")</f>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E26" s="11" t="n">
         <f aca="false">SUMIF(E4:E25,"&gt;0")-SUMIF(E4:E25,"&lt;0")</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F26" s="11" t="n">
         <f aca="false">SUMIF(F4:F25,"&gt;0")-SUMIF(F4:F25,"&lt;0")</f>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G26" s="11" t="n">
         <f aca="false">SUMIF(G4:G25,"&gt;0")-SUMIF(G4:G25,"&lt;0")</f>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H26" s="11" t="n">
         <f aca="false">SUMIF(H4:H25,"&gt;0")-SUMIF(H4:H25,"&lt;0")</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I26" s="11" t="n">
         <f aca="false">SUMIF(I4:I25,"&gt;0")-SUMIF(I4:I25,"&lt;0")</f>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J26" s="11" t="n">
         <f aca="false">SUMIF(J4:J25,"&gt;0")-SUMIF(J4:J25,"&lt;0")</f>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K26" s="11" t="n">
         <f aca="false">SUMIF(K4:K25,"&gt;0")-SUMIF(K4:K25,"&lt;0")</f>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L26" s="11" t="n">
         <f aca="false">SUMIF(L4:L25,"&gt;0")-SUMIF(L4:L25,"&lt;0")</f>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M26" s="11" t="n">
         <f aca="false">SUMIF(M4:M25,"&gt;0")-SUMIF(M4:M25,"&lt;0")</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N26" s="11" t="n">
         <f aca="false">SUMIF(N4:N25,"&gt;0")-SUMIF(N4:N25,"&lt;0")</f>
-        <v>418</v>
+        <v>250</v>
       </c>
       <c r="O26" s="11" t="n">
         <f aca="false">SUMIF(O4:O25,"&gt;0")-SUMIF(O4:O25,"&lt;0")</f>
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="P26" s="11" t="n">
         <f aca="false">SUMIF(P4:P25,"&gt;0")-SUMIF(P4:P25,"&lt;0")</f>
-        <v>232</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,47 +4953,47 @@
       </c>
       <c r="C27" s="1" t="n">
         <f aca="false">SUMIF(C4:C25,"&gt;0")</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">SUMIF(D4:D25,"&gt;0")</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="n">
         <f aca="false">SUMIF(E4:E25,"&gt;0")</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">SUMIF(F4:F25,"&gt;0")</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="n">
         <f aca="false">SUMIF(G4:G25,"&gt;0")</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">SUMIF(H4:H25,"&gt;0")</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1" t="n">
         <f aca="false">SUMIF(I4:I25,"&gt;0")</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">SUMIF(J4:J25,"&gt;0")</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1" t="n">
         <f aca="false">SUMIF(K4:K25,"&gt;0")</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L27" s="1" t="n">
         <f aca="false">SUMIF(L4:L25,"&gt;0")</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M27" s="1" t="n">
         <f aca="false">SUMIF(M4:M25,"&gt;0")</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -4994,23 +5006,23 @@
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">SUM(C4:C25)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">SUM(D4:D25)</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">SUM(E4:E25)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">SUM(F4:F25)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">SUM(G4:G25)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">SUM(H4:H25)</f>
@@ -5018,23 +5030,23 @@
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">SUM(I4:I25)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J28" s="0" t="n">
         <f aca="false">SUM(J4:J25)</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K28" s="0" t="n">
         <f aca="false">SUM(K4:K25)</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">SUM(L4:L25)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M28" s="0" t="n">
         <f aca="false">SUM(M4:M25)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,28 +5065,34 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
+      <c r="R29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>2</v>
@@ -5083,7 +5101,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>0</v>
@@ -5093,15 +5111,21 @@
       </c>
       <c r="N30" s="0" t="n">
         <f aca="false">SUMIF(C30:M30,"&gt;0")-SUMIF(C30:M30,"&lt;0")</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O30" s="1" t="n">
         <f aca="false">SUMIF(C30:M30,"&gt;0")</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">SUM(C30:M30)</f>
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>-1</v>
@@ -5124,34 +5148,40 @@
         <v>1</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N31" s="0" t="n">
         <f aca="false">SUMIF(C31:M31,"&gt;0")-SUMIF(C31:M31,"&lt;0")</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O31" s="1" t="n">
         <f aca="false">SUMIF(C31:M31,"&gt;0")</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P31" s="0" t="n">
         <f aca="false">SUM(C31:M31)</f>
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,28 +5192,28 @@
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>0</v>
@@ -5193,15 +5223,21 @@
       </c>
       <c r="N32" s="0" t="n">
         <f aca="false">SUMIF(C32:M32,"&gt;0")-SUMIF(C32:M32,"&lt;0")</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O32" s="1" t="n">
         <f aca="false">SUMIF(C32:M32,"&gt;0")</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">SUM(C32:M32)</f>
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,49 +5245,49 @@
         <v>60</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" s="0" t="n">
         <f aca="false">SUMIF(C33:M33,"&gt;0")-SUMIF(C33:M33,"&lt;0")</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="O33" s="1" t="n">
         <f aca="false">SUMIF(C33:M33,"&gt;0")</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">SUM(C33:M33)</f>
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,49 +5295,49 @@
         <v>61</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>-2</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N34" s="0" t="n">
         <f aca="false">SUMIF(C34:M34,"&gt;0")-SUMIF(C34:M34,"&lt;0")</f>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O34" s="1" t="n">
         <f aca="false">SUMIF(C34:M34,"&gt;0")</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">SUM(C34:M34)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,49 +5348,49 @@
         <v>62</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="0" t="n">
         <f aca="false">SUMIF(C36:M36,"&gt;0")-SUMIF(C36:M36,"&lt;0")</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O36" s="1" t="n">
         <f aca="false">SUMIF(C36:M36,"&gt;0")</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P36" s="0" t="n">
         <f aca="false">SUM(C36:M36)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,13 +5398,13 @@
         <v>63</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>-2</v>
@@ -5377,16 +5413,16 @@
         <v>-1</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>0</v>
@@ -5396,15 +5432,15 @@
       </c>
       <c r="N37" s="0" t="n">
         <f aca="false">SUMIF(C37:M37,"&gt;0")-SUMIF(C37:M37,"&lt;0")</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O37" s="1" t="n">
         <f aca="false">SUMIF(C37:M37,"&gt;0")</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">SUM(C37:M37)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,28 +5451,28 @@
         <v>-1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>-3</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
         <v>-2</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>-3</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>-2</v>
@@ -5446,7 +5482,7 @@
       </c>
       <c r="N38" s="0" t="n">
         <f aca="false">SUMIF(C38:M38,"&gt;0")-SUMIF(C38:M38,"&lt;0")</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O38" s="1" t="n">
         <f aca="false">SUMIF(C38:M38,"&gt;0")</f>
@@ -5454,7 +5490,7 @@
       </c>
       <c r="P38" s="0" t="n">
         <f aca="false">SUM(C38:M38)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,43 +5504,43 @@
         <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="0" t="n">
         <f aca="false">SUMIF(C39:M39,"&gt;0")-SUMIF(C39:M39,"&lt;0")</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O39" s="1" t="n">
         <f aca="false">SUMIF(C39:M39,"&gt;0")</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P39" s="0" t="n">
         <f aca="false">SUM(C39:M39)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,46 +5551,46 @@
         <v>2</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="0" t="n">
         <f aca="false">SUMIF(C40:M40,"&gt;0")-SUMIF(C40:M40,"&lt;0")</f>
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="O40" s="1" t="n">
         <f aca="false">SUMIF(C40:M40,"&gt;0")</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="P40" s="0" t="n">
         <f aca="false">SUM(C40:M40)</f>
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,7 +5598,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>-2</v>
@@ -5571,13 +5607,13 @@
         <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>2</v>
@@ -5592,15 +5628,15 @@
         <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" s="0" t="n">
         <f aca="false">SUMIF(C41:M41,"&gt;0")-SUMIF(C41:M41,"&lt;0")</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O41" s="1" t="n">
         <f aca="false">SUMIF(C41:M41,"&gt;0")</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">SUM(C41:M41)</f>
@@ -5612,31 +5648,31 @@
         <v>65</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>0</v>
@@ -5646,15 +5682,15 @@
       </c>
       <c r="N42" s="0" t="n">
         <f aca="false">SUMIF(C42:M42,"&gt;0")-SUMIF(C42:M42,"&lt;0")</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O42" s="1" t="n">
         <f aca="false">SUMIF(C42:M42,"&gt;0")</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P42" s="0" t="n">
         <f aca="false">SUM(C42:M42)</f>
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,49 +5698,49 @@
         <v>66</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>-3</v>
       </c>
-      <c r="F43" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>-4</v>
-      </c>
       <c r="H43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N43" s="0" t="n">
         <f aca="false">SUMIF(C43:M43,"&gt;0")-SUMIF(C43:M43,"&lt;0")</f>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="O43" s="1" t="n">
         <f aca="false">SUMIF(C43:M43,"&gt;0")</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P43" s="0" t="n">
         <f aca="false">SUM(C43:M43)</f>
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,28 +5751,28 @@
         <v>-2</v>
       </c>
       <c r="D44" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="0" t="n">
         <v>-3</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>-4</v>
-      </c>
       <c r="G44" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>-2</v>
@@ -5746,15 +5782,15 @@
       </c>
       <c r="N44" s="0" t="n">
         <f aca="false">SUMIF(C44:M44,"&gt;0")-SUMIF(C44:M44,"&lt;0")</f>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O44" s="1" t="n">
         <f aca="false">SUMIF(C44:M44,"&gt;0")</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P44" s="0" t="n">
         <f aca="false">SUM(C44:M44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
